--- a/ARG_COMPARISON_EXCEL/ARGS_post_order/spanking_contra.xlsx
+++ b/ARG_COMPARISON_EXCEL/ARGS_post_order/spanking_contra.xlsx
@@ -33,7 +33,7 @@
     <t>1,0</t>
   </si>
   <si>
-    <t>344,1.5,15.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.3,0.29,0.5,122,0.0,13.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0</t>
+    <t>30.5,5.64,1.89,1.17,1.61,1.5,15.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.03,0.03,0.07,0.03,0.2,0.5,0.5,7.0,23.0,5.3,0.71,0.59,1.22,0.0,13.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.3,0.09,0.09,0.09,0.04,0.0,0.0,0.0,14.5</t>
   </si>
   <si>
     <t>arg335032</t>
@@ -45,7 +45,7 @@
     <t>0,1</t>
   </si>
   <si>
-    <t>205,0.33,11.47,0.0,0.0,1.0,0.0,0.03,0.0,0.1,0.15,0.15,0.0,0.0,183,0.5,11.14,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.25,0.0,0.0</t>
+    <t>13.0,5.26,1.21,1.76,0.69,0.33,11.47,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.08,0.18,0.08,0.08,0.08,0.0,0.0,0.0,0.0,7.63,18.0,5.08,1.12,1.17,0.95,0.5,11.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.03,0.03,0.08,0.0,0.0,0.0,0.0,6.88</t>
   </si>
   <si>
     <t>arg334958</t>
@@ -54,13 +54,13 @@
     <t>arg336204</t>
   </si>
   <si>
-    <t>135,1.0,16.15,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,446,0.25,16.76,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.14,0.0</t>
+    <t>23.0,5.87,0.71,0.59,1.22,1.0,16.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.0,0.35,0.13,0.13,0.13,0.04,0.0,0.0,0.0,3.25,19.0,5.87,2.36,2.34,1.0,0.25,16.76,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.07,0.07,0.13,0.04,0.0,0.0,0.0,6.82</t>
   </si>
   <si>
     <t>arg335030</t>
   </si>
   <si>
-    <t>446,0.25,16.76,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.14,0.0,131,0.0,14.12,0.0,0.04,3.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
+    <t>19.0,5.87,2.36,2.34,1.0,0.25,16.76,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.07,0.07,0.13,0.04,0.0,0.0,0.0,6.82,23.0,5.7,0.71,0.59,1.22,0.0,14.12,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.17,0.04,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,7.71</t>
   </si>
   <si>
     <t>arg334943</t>
@@ -69,7 +69,7 @@
     <t>arg334927</t>
   </si>
   <si>
-    <t>227,0.33,18.16,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.35,0.0,0.0,111,1.0,12.75,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
+    <t>12.0,6.31,1.12,1.76,0.63,0.33,18.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.0,0.0,8.36,21.0,5.29,0.65,0.59,1.11,1.0,12.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.38,0.05,0.05,0.14,0.0,0.0,0.0,0.0,11.43</t>
   </si>
   <si>
     <t>arg335086</t>
@@ -78,13 +78,13 @@
     <t>arg335095</t>
   </si>
   <si>
-    <t>68,0.0,8.97,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,197,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0</t>
+    <t>14.0,4.86,0.43,0.59,0.74,0.0,8.97,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.21,0.36,0.0,0.0,0.0,0.0,0.0,0.0,0.0,11.33,18.5,5.32,1.15,1.17,0.98,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.11,0.22,0.03,0.03,0.08,0.03,0.0,0.0,0.0,11.09</t>
   </si>
   <si>
     <t>arg334918</t>
   </si>
   <si>
-    <t>147,1.0,13.8,0.0,0.18,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,446,0.25,16.76,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.14,0.0</t>
+    <t>28.0,5.25,0.87,0.59,1.48,1.0,13.8,0.0,0.18,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,12.8,19.0,5.87,2.36,2.34,1.0,0.25,16.76,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.07,0.07,0.13,0.04,0.0,0.0,0.0,6.82</t>
   </si>
   <si>
     <t>hem</t>
@@ -96,7 +96,7 @@
     <t>arg334978</t>
   </si>
   <si>
-    <t>344,1.5,15.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.3,0.29,0.5,141,1.0,14.06,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
+    <t>30.5,5.64,1.89,1.17,1.61,1.5,15.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.03,0.03,0.07,0.03,0.2,0.5,0.5,7.0,26.0,5.42,0.81,0.59,1.37,1.0,14.06,0.0,0.04,1.0,2,0,0.0,0.0,0.0,0.08,0.08,0.19,0.12,0.12,0.04,0.0,0.0,0.0,0.0,7.0</t>
   </si>
   <si>
     <t>arg335096</t>
@@ -108,7 +108,7 @@
     <t>arg335084</t>
   </si>
   <si>
-    <t>520,1.0,15.14,0.0,0.02,0.83,0.0,0.0,0.0,0.2,0.5,0.45,0.14,0.5,79,1.0,14.01,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>15.17,5.71,2.82,3.52,0.8,1.0,15.14,0.0,0.02,0.83,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.12,0.12,0.15,0.03,0.4,0.5,0.5,5.8,14.0,5.64,0.43,0.59,0.74,1.0,14.01,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.29,0.07,0.07,0.14,0.0,0.0,0.0,0.0,20.0</t>
   </si>
   <si>
     <t>th</t>
@@ -126,7 +126,7 @@
     <t>ave.</t>
   </si>
   <si>
-    <t>205,0.33,11.47,0.0,0.0,1.0,0.0,0.03,0.0,0.1,0.15,0.15,0.0,0.0,446,0.25,16.76,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.14,0.0</t>
+    <t>13.0,5.26,1.21,1.76,0.69,0.33,11.47,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.08,0.18,0.08,0.08,0.08,0.0,0.0,0.0,0.0,7.63,19.0,5.87,2.36,2.34,1.0,0.25,16.76,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.07,0.07,0.13,0.04,0.0,0.0,0.0,6.82</t>
   </si>
   <si>
     <t>li</t>
@@ -150,19 +150,19 @@
     <t>arg336894</t>
   </si>
   <si>
-    <t>76,1.0,9.18,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,255,0.0,14.34,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.14,0.0</t>
+    <t>15.0,5.07,0.46,0.59,0.79,1.0,9.18,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.0,0.27,0.0,0.0,0.27,0.0,0.0,0.0,0.0,6.75,23.5,5.43,1.46,1.17,1.24,0.0,14.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.11,0.11,0.02,0.02,0.2,0.0,0.0,7.73</t>
   </si>
   <si>
     <t>arg335112</t>
   </si>
   <si>
-    <t>446,0.25,16.76,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.14,0.0,137,1.0,15.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>19.0,5.87,2.36,2.34,1.0,0.25,16.76,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.07,0.07,0.13,0.04,0.0,0.0,0.0,6.82,24.0,5.71,0.74,0.59,1.27,1.0,15.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.13,0.25,0.0,0.0,0.04,0.0,0.0,0.0,0.0,8.17</t>
   </si>
   <si>
     <t>arg335104</t>
   </si>
   <si>
-    <t>446,0.25,16.76,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.14,0.0,149,1.0,9.67,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>19.0,5.87,2.36,2.34,1.0,0.25,16.76,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.07,0.07,0.13,0.04,0.0,0.0,0.0,6.82,33.0,4.52,1.02,0.59,1.74,1.0,9.67,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.12,0.12,0.18,0.09,0.09,0.06,0.0,0.0,0.0,0.0,7.43</t>
   </si>
   <si>
     <t>hm</t>
@@ -174,19 +174,19 @@
     <t>arg335129</t>
   </si>
   <si>
-    <t>214,0.0,13.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,115,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>131,0.0,14.12,0.0,0.04,3.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,227,0.33,18.16,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>122,0.0,13.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,197,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0</t>
+    <t>12.67,5.63,1.18,1.76,0.67,0.0,13.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.03,0.03,0.05,0.03,0.0,0.0,0.0,11.5,20.0,5.75,0.62,0.59,1.06,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.0,0.4,0.05,0.05,0.05,0.0,0.0,0.0,0.0,23.33</t>
+  </si>
+  <si>
+    <t>23.0,5.7,0.71,0.59,1.22,0.0,14.12,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.17,0.04,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,7.71,12.0,6.31,1.12,1.76,0.63,0.33,18.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.0,0.0,8.36</t>
+  </si>
+  <si>
+    <t>23.0,5.3,0.71,0.59,1.22,0.0,13.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.3,0.09,0.09,0.09,0.04,0.0,0.0,0.0,14.5,18.5,5.32,1.15,1.17,0.98,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.11,0.22,0.03,0.03,0.08,0.03,0.0,0.0,0.0,11.09</t>
   </si>
   <si>
     <t>arg336048</t>
   </si>
   <si>
-    <t>446,0.25,16.76,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.14,0.0,172,1.0,12.9,0.0,0.0,1.0,0.0,0.03,0.0,0.05,0.1,0.15,0.0,0.0</t>
+    <t>19.0,5.87,2.36,2.34,1.0,0.25,16.76,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.07,0.07,0.13,0.04,0.0,0.0,0.0,6.82,34.0,5.06,1.05,0.59,1.8,1.0,12.9,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.12,0.06,0.21,0.12,0.12,0.06,0.0,0.0,0.0,0.0,3.38</t>
   </si>
   <si>
     <t>ing</t>
@@ -201,25 +201,25 @@
     <t>busive to others.</t>
   </si>
   <si>
-    <t>344,1.5,15.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.3,0.29,0.5,79,1.0,14.01,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>79,1.0,14.01,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,446,0.25,16.76,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.14,0.0</t>
+    <t>30.5,5.64,1.89,1.17,1.61,1.5,15.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.03,0.03,0.07,0.03,0.2,0.5,0.5,7.0,14.0,5.64,0.43,0.59,0.74,1.0,14.01,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.29,0.07,0.07,0.14,0.0,0.0,0.0,0.0,20.0</t>
+  </si>
+  <si>
+    <t>14.0,5.64,0.43,0.59,0.74,1.0,14.01,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.29,0.07,0.07,0.14,0.0,0.0,0.0,0.0,20.0,19.0,5.87,2.36,2.34,1.0,0.25,16.76,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.07,0.07,0.13,0.04,0.0,0.0,0.0,6.82</t>
   </si>
   <si>
     <t>arg336179</t>
   </si>
   <si>
-    <t>115,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,123,1.0,13.85,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.14,0.0</t>
-  </si>
-  <si>
-    <t>446,0.25,16.76,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.14,0.0,122,0.0,13.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>172,1.0,12.9,0.0,0.0,1.0,0.0,0.03,0.0,0.05,0.1,0.15,0.0,0.0,111,1.0,12.75,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>131,0.0,14.12,0.0,0.04,3.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,520,1.0,15.14,0.0,0.02,0.83,0.0,0.0,0.0,0.2,0.5,0.45,0.14,0.5</t>
+    <t>20.0,5.75,0.62,0.59,1.06,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.0,0.4,0.05,0.05,0.05,0.0,0.0,0.0,0.0,23.33,11.0,5.59,0.68,1.17,0.58,1.0,13.85,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.27,0.09,0.09,0.23,0.0,0.0,0.0,0.0,6.43</t>
+  </si>
+  <si>
+    <t>19.0,5.87,2.36,2.34,1.0,0.25,16.76,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.07,0.07,0.13,0.04,0.0,0.0,0.0,6.82,23.0,5.3,0.71,0.59,1.22,0.0,13.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.3,0.09,0.09,0.09,0.04,0.0,0.0,0.0,14.5</t>
+  </si>
+  <si>
+    <t>34.0,5.06,1.05,0.59,1.8,1.0,12.9,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.12,0.06,0.21,0.12,0.12,0.06,0.0,0.0,0.0,0.0,3.38,21.0,5.29,0.65,0.59,1.11,1.0,12.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.38,0.05,0.05,0.14,0.0,0.0,0.0,0.0,11.43</t>
+  </si>
+  <si>
+    <t>23.0,5.7,0.71,0.59,1.22,0.0,14.12,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.17,0.04,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,7.71,15.17,5.71,2.82,3.52,0.8,1.0,15.14,0.0,0.02,0.83,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.12,0.12,0.15,0.03,0.4,0.5,0.5,5.8</t>
   </si>
   <si>
     <t>bec</t>
@@ -237,7 +237,7 @@
     <t>hey are just scared that their parents would hit them</t>
   </si>
   <si>
-    <t>149,1.0,9.67,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,520,1.0,15.14,0.0,0.02,0.83,0.0,0.0,0.0,0.2,0.5,0.45,0.14,0.5</t>
+    <t>33.0,4.52,1.02,0.59,1.74,1.0,9.67,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.12,0.12,0.18,0.09,0.09,0.06,0.0,0.0,0.0,0.0,7.43,15.17,5.71,2.82,3.52,0.8,1.0,15.14,0.0,0.02,0.83,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.12,0.12,0.15,0.03,0.4,0.5,0.5,5.8</t>
   </si>
   <si>
     <t>eir</t>
@@ -258,31 +258,31 @@
     <t>arg336172</t>
   </si>
   <si>
-    <t>183,0.5,11.14,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.25,0.0,0.0,103,0.0,19.86,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
+    <t>18.0,5.08,1.12,1.17,0.95,0.5,11.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.03,0.03,0.08,0.0,0.0,0.0,0.0,6.88,16.0,6.44,0.5,0.59,0.85,0.0,19.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.13,0.19,0.13,0.13,0.06,0.06,0.0,0.0,0.0,9.67</t>
   </si>
   <si>
     <t>arg335114</t>
   </si>
   <si>
-    <t>129,0.0,12.04,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,197,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>227,0.33,18.16,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.35,0.0,0.0,123,1.0,13.85,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.14,0.0</t>
+    <t>7.67,5.61,0.71,1.76,0.41,0.0,12.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.17,0.09,0.09,0.09,0.0,0.0,0.0,0.0,15.8,18.5,5.32,1.15,1.17,0.98,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.11,0.22,0.03,0.03,0.08,0.03,0.0,0.0,0.0,11.09</t>
+  </si>
+  <si>
+    <t>12.0,6.31,1.12,1.76,0.63,0.33,18.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.0,0.0,8.36,11.0,5.59,0.68,1.17,0.58,1.0,13.85,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.27,0.09,0.09,0.23,0.0,0.0,0.0,0.0,6.43</t>
   </si>
   <si>
     <t>arg334926</t>
   </si>
   <si>
-    <t>83,0.0,13.99,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,344,1.5,15.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.3,0.29,0.5</t>
-  </si>
-  <si>
-    <t>83,0.0,13.99,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,227,0.33,18.16,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>79,1.0,14.01,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,227,0.33,18.16,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>137,1.0,15.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,520,1.0,15.14,0.0,0.02,0.83,0.0,0.0,0.0,0.2,0.5,0.45,0.14,0.5</t>
+    <t>7.0,5.93,0.43,1.17,0.37,0.0,13.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.0,0.0,0.14,0.07,0.0,0.0,0.0,8.5,30.5,5.64,1.89,1.17,1.61,1.5,15.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.03,0.03,0.07,0.03,0.2,0.5,0.5,7.0</t>
+  </si>
+  <si>
+    <t>7.0,5.93,0.43,1.17,0.37,0.0,13.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.0,0.0,0.14,0.07,0.0,0.0,0.0,8.5,12.0,6.31,1.12,1.76,0.63,0.33,18.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.0,0.0,8.36</t>
+  </si>
+  <si>
+    <t>14.0,5.64,0.43,0.59,0.74,1.0,14.01,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.29,0.07,0.07,0.14,0.0,0.0,0.0,0.0,20.0,12.0,6.31,1.12,1.76,0.63,0.33,18.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.0,0.0,8.36</t>
+  </si>
+  <si>
+    <t>24.0,5.71,0.74,0.59,1.27,1.0,15.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.13,0.25,0.0,0.0,0.04,0.0,0.0,0.0,0.0,8.17,15.17,5.71,2.82,3.52,0.8,1.0,15.14,0.0,0.02,0.83,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.12,0.12,0.15,0.03,0.4,0.5,0.5,5.8</t>
   </si>
   <si>
     <t>on,</t>
@@ -297,22 +297,22 @@
     <t>arg334929</t>
   </si>
   <si>
-    <t>122,0.0,13.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,291,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>520,1.0,15.14,0.0,0.02,0.83,0.0,0.0,0.0,0.2,0.5,0.45,0.14,0.5,68,0.0,8.97,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>76,1.0,9.18,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,183,0.5,11.14,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>68,0.0,8.97,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,172,1.0,12.9,0.0,0.0,1.0,0.0,0.03,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>446,0.25,16.76,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.14,0.0,103,0.0,19.86,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>76,1.0,9.18,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,520,1.0,15.14,0.0,0.02,0.83,0.0,0.0,0.0,0.2,0.5,0.45,0.14,0.5</t>
+    <t>23.0,5.3,0.71,0.59,1.22,0.0,13.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.3,0.09,0.09,0.09,0.04,0.0,0.0,0.0,14.5,27.5,5.29,1.7,1.17,1.45,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.31,0.09,0.09,0.11,0.04,0.0,0.0,0.0,7.5</t>
+  </si>
+  <si>
+    <t>15.17,5.71,2.82,3.52,0.8,1.0,15.14,0.0,0.02,0.83,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.12,0.12,0.15,0.03,0.4,0.5,0.5,5.8,14.0,4.86,0.43,0.59,0.74,0.0,8.97,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.21,0.36,0.0,0.0,0.0,0.0,0.0,0.0,0.0,11.33</t>
+  </si>
+  <si>
+    <t>15.0,5.07,0.46,0.59,0.79,1.0,9.18,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.0,0.27,0.0,0.0,0.27,0.0,0.0,0.0,0.0,6.75,18.0,5.08,1.12,1.17,0.95,0.5,11.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.03,0.03,0.08,0.0,0.0,0.0,0.0,6.88</t>
+  </si>
+  <si>
+    <t>14.0,4.86,0.43,0.59,0.74,0.0,8.97,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.21,0.36,0.0,0.0,0.0,0.0,0.0,0.0,0.0,11.33,34.0,5.06,1.05,0.59,1.8,1.0,12.9,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.12,0.06,0.21,0.12,0.12,0.06,0.0,0.0,0.0,0.0,3.38</t>
+  </si>
+  <si>
+    <t>19.0,5.87,2.36,2.34,1.0,0.25,16.76,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.07,0.07,0.13,0.04,0.0,0.0,0.0,6.82,16.0,6.44,0.5,0.59,0.85,0.0,19.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.13,0.19,0.13,0.13,0.06,0.06,0.0,0.0,0.0,9.67</t>
+  </si>
+  <si>
+    <t>15.0,5.07,0.46,0.59,0.79,1.0,9.18,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.0,0.27,0.0,0.0,0.27,0.0,0.0,0.0,0.0,6.75,15.17,5.71,2.82,3.52,0.8,1.0,15.14,0.0,0.02,0.83,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.12,0.12,0.15,0.03,0.4,0.5,0.5,5.8</t>
   </si>
   <si>
     <t>t t</t>
@@ -327,7 +327,7 @@
     <t>arg335132</t>
   </si>
   <si>
-    <t>310,5.0,14.59,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,344,1.5,15.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.3,0.29,0.5</t>
+    <t>59.0,5.25,1.83,0.59,3.12,5.0,14.59,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.14,0.02,0.27,0.08,0.08,0.12,0.0,0.0,0.0,0.0,7.33,30.5,5.64,1.89,1.17,1.61,1.5,15.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.03,0.03,0.07,0.03,0.2,0.5,0.5,7.0</t>
   </si>
   <si>
     <t>ld</t>
@@ -345,7 +345,7 @@
     <t>l with anger and they wouldn't be thinking logically.</t>
   </si>
   <si>
-    <t>520,1.0,15.14,0.0,0.02,0.83,0.0,0.0,0.0,0.2,0.5,0.45,0.14,0.5,172,1.0,12.9,0.0,0.0,1.0,0.0,0.03,0.0,0.05,0.1,0.15,0.0,0.0</t>
+    <t>15.17,5.71,2.82,3.52,0.8,1.0,15.14,0.0,0.02,0.83,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.12,0.12,0.15,0.03,0.4,0.5,0.5,5.8,34.0,5.06,1.05,0.59,1.8,1.0,12.9,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.12,0.06,0.21,0.12,0.12,0.06,0.0,0.0,0.0,0.0,3.38</t>
   </si>
   <si>
     <t>OK</t>
@@ -366,31 +366,31 @@
     <t>arg334968</t>
   </si>
   <si>
-    <t>111,1.0,12.75,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,90,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>227,0.33,18.16,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.35,0.0,0.0,76,1.0,9.18,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>446,0.25,16.76,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.14,0.0,111,1.0,12.75,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>214,0.0,13.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,149,1.0,9.67,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>83,0.0,13.99,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,291,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>68,0.0,8.97,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,255,0.0,14.34,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.14,0.0</t>
+    <t>21.0,5.29,0.65,0.59,1.11,1.0,12.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.38,0.05,0.05,0.14,0.0,0.0,0.0,0.0,11.43,15.0,6.0,0.46,0.59,0.79,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,8.0</t>
+  </si>
+  <si>
+    <t>12.0,6.31,1.12,1.76,0.63,0.33,18.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.0,0.0,8.36,15.0,5.07,0.46,0.59,0.79,1.0,9.18,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.0,0.27,0.0,0.0,0.27,0.0,0.0,0.0,0.0,6.75</t>
+  </si>
+  <si>
+    <t>19.0,5.87,2.36,2.34,1.0,0.25,16.76,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.07,0.07,0.13,0.04,0.0,0.0,0.0,6.82,21.0,5.29,0.65,0.59,1.11,1.0,12.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.38,0.05,0.05,0.14,0.0,0.0,0.0,0.0,11.43</t>
+  </si>
+  <si>
+    <t>12.67,5.63,1.18,1.76,0.67,0.0,13.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.03,0.03,0.05,0.03,0.0,0.0,0.0,11.5,33.0,4.52,1.02,0.59,1.74,1.0,9.67,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.12,0.12,0.18,0.09,0.09,0.06,0.0,0.0,0.0,0.0,7.43</t>
+  </si>
+  <si>
+    <t>7.0,5.93,0.43,1.17,0.37,0.0,13.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.0,0.0,0.14,0.07,0.0,0.0,0.0,8.5,27.5,5.29,1.7,1.17,1.45,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.31,0.09,0.09,0.11,0.04,0.0,0.0,0.0,7.5</t>
+  </si>
+  <si>
+    <t>14.0,4.86,0.43,0.59,0.74,0.0,8.97,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.21,0.36,0.0,0.0,0.0,0.0,0.0,0.0,0.0,11.33,23.5,5.43,1.46,1.17,1.24,0.0,14.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.11,0.11,0.02,0.02,0.2,0.0,0.0,7.73</t>
   </si>
   <si>
     <t>arg334907</t>
   </si>
   <si>
-    <t>79,1.0,14.01,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,147,0.33,11.84,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>291,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0,446,0.25,16.76,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.14,0.0</t>
+    <t>14.0,5.64,0.43,0.59,0.74,1.0,14.01,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.29,0.07,0.07,0.14,0.0,0.0,0.0,0.0,20.0,9.33,5.25,0.87,1.76,0.49,0.33,11.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.11,0.11,0.21,0.04,0.2,0.0,0.0,8.0</t>
+  </si>
+  <si>
+    <t>27.5,5.29,1.7,1.17,1.45,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.31,0.09,0.09,0.11,0.04,0.0,0.0,0.0,7.5,19.0,5.87,2.36,2.34,1.0,0.25,16.76,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.07,0.07,0.13,0.04,0.0,0.0,0.0,6.82</t>
   </si>
   <si>
     <t>l s</t>
@@ -408,19 +408,19 @@
     <t>spect them and agree to what their parents decide although they may not like it. They will learn that the parents know whats best for them.</t>
   </si>
   <si>
-    <t>115,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,291,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>446,0.25,16.76,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.14,0.0,68,0.0,8.97,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>20.0,5.75,0.62,0.59,1.06,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.0,0.4,0.05,0.05,0.05,0.0,0.0,0.0,0.0,23.33,27.5,5.29,1.7,1.17,1.45,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.31,0.09,0.09,0.11,0.04,0.0,0.0,0.0,7.5</t>
+  </si>
+  <si>
+    <t>19.0,5.87,2.36,2.34,1.0,0.25,16.76,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.07,0.07,0.13,0.04,0.0,0.0,0.0,6.82,14.0,4.86,0.43,0.59,0.74,0.0,8.97,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.21,0.36,0.0,0.0,0.0,0.0,0.0,0.0,0.0,11.33</t>
   </si>
   <si>
     <t>arg334960</t>
   </si>
   <si>
-    <t>115,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,194,0.5,17.26,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>520,1.0,15.14,0.0,0.02,0.83,0.0,0.0,0.0,0.2,0.5,0.45,0.14,0.5,194,0.5,17.26,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>20.0,5.75,0.62,0.59,1.06,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.0,0.4,0.05,0.05,0.05,0.0,0.0,0.0,0.0,23.33,16.0,6.06,0.99,1.17,0.85,0.5,17.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.19,0.09,0.09,0.19,0.03,0.0,0.0,0.0,11.29</t>
+  </si>
+  <si>
+    <t>15.17,5.71,2.82,3.52,0.8,1.0,15.14,0.0,0.02,0.83,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.12,0.12,0.15,0.03,0.4,0.5,0.5,5.8,16.0,6.06,0.99,1.17,0.85,0.5,17.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.19,0.09,0.09,0.19,0.03,0.0,0.0,0.0,11.29</t>
   </si>
   <si>
     <t>isb</t>
@@ -438,16 +438,16 @@
     <t>arg334975</t>
   </si>
   <si>
-    <t>164,0.0,13.59,0.0,0.0,5.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0,344,1.5,15.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.3,0.29,0.5</t>
-  </si>
-  <si>
-    <t>149,1.0,9.67,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,344,1.5,15.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.3,0.29,0.5</t>
-  </si>
-  <si>
-    <t>141,1.0,14.06,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,227,0.33,18.16,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>520,1.0,15.14,0.0,0.02,0.83,0.0,0.0,0.0,0.2,0.5,0.45,0.14,0.5,103,0.0,19.86,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
+    <t>30.0,5.47,0.93,0.59,1.59,0.0,13.59,0.0,0.0,5.0,0,0,0.0,0.0,0.0,0.13,0.07,0.2,0.07,0.07,0.1,0.07,0.0,0.0,0.0,8.5,30.5,5.64,1.89,1.17,1.61,1.5,15.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.03,0.03,0.07,0.03,0.2,0.5,0.5,7.0</t>
+  </si>
+  <si>
+    <t>33.0,4.52,1.02,0.59,1.74,1.0,9.67,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.12,0.12,0.18,0.09,0.09,0.06,0.0,0.0,0.0,0.0,7.43,30.5,5.64,1.89,1.17,1.61,1.5,15.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.03,0.03,0.07,0.03,0.2,0.5,0.5,7.0</t>
+  </si>
+  <si>
+    <t>26.0,5.42,0.81,0.59,1.37,1.0,14.06,0.0,0.04,1.0,2,0,0.0,0.0,0.0,0.08,0.08,0.19,0.12,0.12,0.04,0.0,0.0,0.0,0.0,7.0,12.0,6.31,1.12,1.76,0.63,0.33,18.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.0,0.0,8.36</t>
+  </si>
+  <si>
+    <t>15.17,5.71,2.82,3.52,0.8,1.0,15.14,0.0,0.02,0.83,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.12,0.12,0.15,0.03,0.4,0.5,0.5,5.8,16.0,6.44,0.5,0.59,0.85,0.0,19.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.13,0.19,0.13,0.13,0.06,0.06,0.0,0.0,0.0,9.67</t>
   </si>
   <si>
     <t>r d</t>
@@ -465,22 +465,22 @@
     <t>ine, only if its necessary .</t>
   </si>
   <si>
-    <t>214,0.0,13.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,194,0.5,17.26,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>76,1.0,9.18,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,446,0.25,16.76,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.14,0.0</t>
-  </si>
-  <si>
-    <t>446,0.25,16.76,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.14,0.0,147,0.33,11.84,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.15,0.0,0.0</t>
+    <t>12.67,5.63,1.18,1.76,0.67,0.0,13.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.03,0.03,0.05,0.03,0.0,0.0,0.0,11.5,16.0,6.06,0.99,1.17,0.85,0.5,17.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.19,0.09,0.09,0.19,0.03,0.0,0.0,0.0,11.29</t>
+  </si>
+  <si>
+    <t>15.0,5.07,0.46,0.59,0.79,1.0,9.18,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.0,0.27,0.0,0.0,0.27,0.0,0.0,0.0,0.0,6.75,19.0,5.87,2.36,2.34,1.0,0.25,16.76,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.07,0.07,0.13,0.04,0.0,0.0,0.0,6.82</t>
+  </si>
+  <si>
+    <t>19.0,5.87,2.36,2.34,1.0,0.25,16.76,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.07,0.07,0.13,0.04,0.0,0.0,0.0,6.82,9.33,5.25,0.87,1.76,0.49,0.33,11.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.11,0.11,0.21,0.04,0.2,0.0,0.0,8.0</t>
   </si>
   <si>
     <t>arg334890</t>
   </si>
   <si>
-    <t>122,0.5,13.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,446,0.25,16.76,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.14,0.0</t>
-  </si>
-  <si>
-    <t>520,1.0,15.14,0.0,0.02,0.83,0.0,0.0,0.0,0.2,0.5,0.45,0.14,0.5,135,1.0,16.15,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
+    <t>10.5,5.81,0.65,1.17,0.56,0.5,13.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.33,0.05,0.05,0.19,0.0,0.0,0.0,0.0,16.0,19.0,5.87,2.36,2.34,1.0,0.25,16.76,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.07,0.07,0.13,0.04,0.0,0.0,0.0,6.82</t>
+  </si>
+  <si>
+    <t>15.17,5.71,2.82,3.52,0.8,1.0,15.14,0.0,0.02,0.83,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.12,0.12,0.15,0.03,0.4,0.5,0.5,5.8,23.0,5.87,0.71,0.59,1.22,1.0,16.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.0,0.35,0.13,0.13,0.13,0.04,0.0,0.0,0.0,3.25</t>
   </si>
   <si>
     <t>ey</t>
@@ -489,43 +489,43 @@
     <t>barely growing up and still trying to understand the world.</t>
   </si>
   <si>
-    <t>344,1.5,15.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.3,0.29,0.5,131,0.0,14.12,0.0,0.04,3.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
+    <t>30.5,5.64,1.89,1.17,1.61,1.5,15.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.03,0.03,0.07,0.03,0.2,0.5,0.5,7.0,23.0,5.7,0.71,0.59,1.22,0.0,14.12,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.17,0.04,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,7.71</t>
   </si>
   <si>
     <t>arg336029</t>
   </si>
   <si>
-    <t>320,0.0,12.28,0.0,0.05,0.83,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,194,0.5,17.26,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>76,1.0,9.18,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,214,0.0,13.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>115,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,227,0.33,18.16,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>214,0.0,13.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,68,0.0,8.97,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>197,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0,103,0.0,19.86,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>172,1.0,12.9,0.0,0.0,1.0,0.0,0.03,0.0,0.05,0.1,0.15,0.0,0.0,83,0.0,13.99,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>129,0.0,12.04,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,344,1.5,15.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.3,0.29,0.5</t>
-  </si>
-  <si>
-    <t>141,1.0,14.06,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,520,1.0,15.14,0.0,0.02,0.83,0.0,0.0,0.0,0.2,0.5,0.45,0.14,0.5</t>
-  </si>
-  <si>
-    <t>111,1.0,12.75,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,129,0.0,12.04,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>344,1.5,15.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.3,0.29,0.5,205,0.33,11.47,0.0,0.0,1.0,0.0,0.03,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>520,1.0,15.14,0.0,0.02,0.83,0.0,0.0,0.0,0.2,0.5,0.45,0.14,0.5,122,0.0,13.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0</t>
+    <t>9.83,5.42,1.83,3.52,0.52,0.0,12.28,0.0,0.05,0.83,0,0,0.0,0.0,0.0,0.22,0.07,0.31,0.1,0.1,0.12,0.02,0.0,0.0,0.0,3.0,16.0,6.06,0.99,1.17,0.85,0.5,17.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.19,0.09,0.09,0.19,0.03,0.0,0.0,0.0,11.29</t>
+  </si>
+  <si>
+    <t>15.0,5.07,0.46,0.59,0.79,1.0,9.18,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.0,0.27,0.0,0.0,0.27,0.0,0.0,0.0,0.0,6.75,12.67,5.63,1.18,1.76,0.67,0.0,13.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.03,0.03,0.05,0.03,0.0,0.0,0.0,11.5</t>
+  </si>
+  <si>
+    <t>20.0,5.75,0.62,0.59,1.06,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.0,0.4,0.05,0.05,0.05,0.0,0.0,0.0,0.0,23.33,12.0,6.31,1.12,1.76,0.63,0.33,18.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.0,0.0,8.36</t>
+  </si>
+  <si>
+    <t>12.67,5.63,1.18,1.76,0.67,0.0,13.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.03,0.03,0.05,0.03,0.0,0.0,0.0,11.5,14.0,4.86,0.43,0.59,0.74,0.0,8.97,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.21,0.36,0.0,0.0,0.0,0.0,0.0,0.0,0.0,11.33</t>
+  </si>
+  <si>
+    <t>18.5,5.32,1.15,1.17,0.98,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.11,0.22,0.03,0.03,0.08,0.03,0.0,0.0,0.0,11.09,16.0,6.44,0.5,0.59,0.85,0.0,19.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.13,0.19,0.13,0.13,0.06,0.06,0.0,0.0,0.0,9.67</t>
+  </si>
+  <si>
+    <t>34.0,5.06,1.05,0.59,1.8,1.0,12.9,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.12,0.06,0.21,0.12,0.12,0.06,0.0,0.0,0.0,0.0,3.38,7.0,5.93,0.43,1.17,0.37,0.0,13.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.0,0.0,0.14,0.07,0.0,0.0,0.0,8.5</t>
+  </si>
+  <si>
+    <t>7.67,5.61,0.71,1.76,0.41,0.0,12.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.17,0.09,0.09,0.09,0.0,0.0,0.0,0.0,15.8,30.5,5.64,1.89,1.17,1.61,1.5,15.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.03,0.03,0.07,0.03,0.2,0.5,0.5,7.0</t>
+  </si>
+  <si>
+    <t>26.0,5.42,0.81,0.59,1.37,1.0,14.06,0.0,0.04,1.0,2,0,0.0,0.0,0.0,0.08,0.08,0.19,0.12,0.12,0.04,0.0,0.0,0.0,0.0,7.0,15.17,5.71,2.82,3.52,0.8,1.0,15.14,0.0,0.02,0.83,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.12,0.12,0.15,0.03,0.4,0.5,0.5,5.8</t>
+  </si>
+  <si>
+    <t>21.0,5.29,0.65,0.59,1.11,1.0,12.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.38,0.05,0.05,0.14,0.0,0.0,0.0,0.0,11.43,7.67,5.61,0.71,1.76,0.41,0.0,12.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.17,0.09,0.09,0.09,0.0,0.0,0.0,0.0,15.8</t>
+  </si>
+  <si>
+    <t>30.5,5.64,1.89,1.17,1.61,1.5,15.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.03,0.03,0.07,0.03,0.2,0.5,0.5,7.0,13.0,5.26,1.21,1.76,0.69,0.33,11.47,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.08,0.18,0.08,0.08,0.08,0.0,0.0,0.0,0.0,7.63</t>
+  </si>
+  <si>
+    <t>15.17,5.71,2.82,3.52,0.8,1.0,15.14,0.0,0.02,0.83,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.12,0.12,0.15,0.03,0.4,0.5,0.5,5.8,23.0,5.3,0.71,0.59,1.22,0.0,13.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.3,0.09,0.09,0.09,0.04,0.0,0.0,0.0,14.5</t>
   </si>
   <si>
     <t>mak</t>
@@ -534,7 +534,7 @@
     <t>child get mad than to see what they did wrong.</t>
   </si>
   <si>
-    <t>520,1.0,15.14,0.0,0.02,0.83,0.0,0.0,0.0,0.2,0.5,0.45,0.14,0.5,183,0.5,11.14,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.25,0.0,0.0</t>
+    <t>15.17,5.71,2.82,3.52,0.8,1.0,15.14,0.0,0.02,0.83,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.12,0.12,0.15,0.03,0.4,0.5,0.5,5.8,18.0,5.08,1.12,1.17,0.95,0.5,11.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.03,0.03,0.08,0.0,0.0,0.0,0.0,6.88</t>
   </si>
   <si>
     <t>ca</t>
@@ -546,73 +546,73 @@
     <t>over a spanking fast, and do whatever they did again. So its better to be a bit strict, than to abuse a kid.</t>
   </si>
   <si>
-    <t>122,0.5,13.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,164,0.0,13.59,0.0,0.0,5.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>115,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,446,0.25,16.76,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.14,0.0</t>
-  </si>
-  <si>
-    <t>129,0.0,12.04,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,520,1.0,15.14,0.0,0.02,0.83,0.0,0.0,0.0,0.2,0.5,0.45,0.14,0.5</t>
-  </si>
-  <si>
-    <t>205,0.33,11.47,0.0,0.0,1.0,0.0,0.03,0.0,0.1,0.15,0.15,0.0,0.0,129,0.0,12.04,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>194,0.5,17.26,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,111,1.0,12.75,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>115,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,344,1.5,15.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.3,0.29,0.5</t>
-  </si>
-  <si>
-    <t>446,0.25,16.76,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.14,0.0,83,0.0,13.99,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>164,0.0,13.59,0.0,0.0,5.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0,129,0.0,12.04,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>227,0.33,18.16,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.35,0.0,0.0,122,0.0,13.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>344,1.5,15.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.3,0.29,0.5,122,0.5,13.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>164,0.0,13.59,0.0,0.0,5.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0,115,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>227,0.33,18.16,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.35,0.0,0.0,137,1.0,15.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>68,0.0,8.97,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,227,0.33,18.16,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,1.0,13.8,0.0,0.18,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,111,1.0,12.75,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>197,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0,111,1.0,12.75,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>344,1.5,15.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.3,0.29,0.5,111,1.0,12.75,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>68,0.0,8.97,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,131,0.0,14.12,0.0,0.04,3.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>344,1.5,15.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.3,0.29,0.5,68,0.0,8.97,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>194,0.5,17.26,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,90,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>76,1.0,9.18,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,147,0.33,11.84,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>446,0.25,16.76,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.14,0.0,310,5.0,14.59,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
+    <t>10.5,5.81,0.65,1.17,0.56,0.5,13.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.33,0.05,0.05,0.19,0.0,0.0,0.0,0.0,16.0,30.0,5.47,0.93,0.59,1.59,0.0,13.59,0.0,0.0,5.0,0,0,0.0,0.0,0.0,0.13,0.07,0.2,0.07,0.07,0.1,0.07,0.0,0.0,0.0,8.5</t>
+  </si>
+  <si>
+    <t>20.0,5.75,0.62,0.59,1.06,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.0,0.4,0.05,0.05,0.05,0.0,0.0,0.0,0.0,23.33,19.0,5.87,2.36,2.34,1.0,0.25,16.76,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.07,0.07,0.13,0.04,0.0,0.0,0.0,6.82</t>
+  </si>
+  <si>
+    <t>7.67,5.61,0.71,1.76,0.41,0.0,12.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.17,0.09,0.09,0.09,0.0,0.0,0.0,0.0,15.8,15.17,5.71,2.82,3.52,0.8,1.0,15.14,0.0,0.02,0.83,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.12,0.12,0.15,0.03,0.4,0.5,0.5,5.8</t>
+  </si>
+  <si>
+    <t>13.0,5.26,1.21,1.76,0.69,0.33,11.47,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.08,0.18,0.08,0.08,0.08,0.0,0.0,0.0,0.0,7.63,7.67,5.61,0.71,1.76,0.41,0.0,12.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.17,0.09,0.09,0.09,0.0,0.0,0.0,0.0,15.8</t>
+  </si>
+  <si>
+    <t>16.0,6.06,0.99,1.17,0.85,0.5,17.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.19,0.09,0.09,0.19,0.03,0.0,0.0,0.0,11.29,21.0,5.29,0.65,0.59,1.11,1.0,12.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.38,0.05,0.05,0.14,0.0,0.0,0.0,0.0,11.43</t>
+  </si>
+  <si>
+    <t>20.0,5.75,0.62,0.59,1.06,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.0,0.4,0.05,0.05,0.05,0.0,0.0,0.0,0.0,23.33,30.5,5.64,1.89,1.17,1.61,1.5,15.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.03,0.03,0.07,0.03,0.2,0.5,0.5,7.0</t>
+  </si>
+  <si>
+    <t>19.0,5.87,2.36,2.34,1.0,0.25,16.76,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.07,0.07,0.13,0.04,0.0,0.0,0.0,6.82,7.0,5.93,0.43,1.17,0.37,0.0,13.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.0,0.0,0.14,0.07,0.0,0.0,0.0,8.5</t>
+  </si>
+  <si>
+    <t>30.0,5.47,0.93,0.59,1.59,0.0,13.59,0.0,0.0,5.0,0,0,0.0,0.0,0.0,0.13,0.07,0.2,0.07,0.07,0.1,0.07,0.0,0.0,0.0,8.5,7.67,5.61,0.71,1.76,0.41,0.0,12.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.17,0.09,0.09,0.09,0.0,0.0,0.0,0.0,15.8</t>
+  </si>
+  <si>
+    <t>12.0,6.31,1.12,1.76,0.63,0.33,18.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.0,0.0,8.36,23.0,5.3,0.71,0.59,1.22,0.0,13.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.3,0.09,0.09,0.09,0.04,0.0,0.0,0.0,14.5</t>
+  </si>
+  <si>
+    <t>30.5,5.64,1.89,1.17,1.61,1.5,15.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.03,0.03,0.07,0.03,0.2,0.5,0.5,7.0,10.5,5.81,0.65,1.17,0.56,0.5,13.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.33,0.05,0.05,0.19,0.0,0.0,0.0,0.0,16.0</t>
+  </si>
+  <si>
+    <t>30.0,5.47,0.93,0.59,1.59,0.0,13.59,0.0,0.0,5.0,0,0,0.0,0.0,0.0,0.13,0.07,0.2,0.07,0.07,0.1,0.07,0.0,0.0,0.0,8.5,20.0,5.75,0.62,0.59,1.06,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.0,0.4,0.05,0.05,0.05,0.0,0.0,0.0,0.0,23.33</t>
+  </si>
+  <si>
+    <t>12.0,6.31,1.12,1.76,0.63,0.33,18.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.0,0.0,8.36,24.0,5.71,0.74,0.59,1.27,1.0,15.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.13,0.25,0.0,0.0,0.04,0.0,0.0,0.0,0.0,8.17</t>
+  </si>
+  <si>
+    <t>14.0,4.86,0.43,0.59,0.74,0.0,8.97,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.21,0.36,0.0,0.0,0.0,0.0,0.0,0.0,0.0,11.33,12.0,6.31,1.12,1.76,0.63,0.33,18.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.0,0.0,8.36</t>
+  </si>
+  <si>
+    <t>28.0,5.25,0.87,0.59,1.48,1.0,13.8,0.0,0.18,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,12.8,21.0,5.29,0.65,0.59,1.11,1.0,12.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.38,0.05,0.05,0.14,0.0,0.0,0.0,0.0,11.43</t>
+  </si>
+  <si>
+    <t>18.5,5.32,1.15,1.17,0.98,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.11,0.22,0.03,0.03,0.08,0.03,0.0,0.0,0.0,11.09,21.0,5.29,0.65,0.59,1.11,1.0,12.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.38,0.05,0.05,0.14,0.0,0.0,0.0,0.0,11.43</t>
+  </si>
+  <si>
+    <t>30.5,5.64,1.89,1.17,1.61,1.5,15.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.03,0.03,0.07,0.03,0.2,0.5,0.5,7.0,21.0,5.29,0.65,0.59,1.11,1.0,12.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.38,0.05,0.05,0.14,0.0,0.0,0.0,0.0,11.43</t>
+  </si>
+  <si>
+    <t>14.0,4.86,0.43,0.59,0.74,0.0,8.97,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.21,0.36,0.0,0.0,0.0,0.0,0.0,0.0,0.0,11.33,23.0,5.7,0.71,0.59,1.22,0.0,14.12,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.17,0.04,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,7.71</t>
+  </si>
+  <si>
+    <t>30.5,5.64,1.89,1.17,1.61,1.5,15.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.03,0.03,0.07,0.03,0.2,0.5,0.5,7.0,14.0,4.86,0.43,0.59,0.74,0.0,8.97,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.21,0.36,0.0,0.0,0.0,0.0,0.0,0.0,0.0,11.33</t>
+  </si>
+  <si>
+    <t>16.0,6.06,0.99,1.17,0.85,0.5,17.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.19,0.09,0.09,0.19,0.03,0.0,0.0,0.0,11.29,15.0,6.0,0.46,0.59,0.79,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,8.0</t>
+  </si>
+  <si>
+    <t>15.0,5.07,0.46,0.59,0.79,1.0,9.18,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.0,0.27,0.0,0.0,0.27,0.0,0.0,0.0,0.0,6.75,9.33,5.25,0.87,1.76,0.49,0.33,11.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.11,0.11,0.21,0.04,0.2,0.0,0.0,8.0</t>
+  </si>
+  <si>
+    <t>19.0,5.87,2.36,2.34,1.0,0.25,16.76,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.07,0.07,0.13,0.04,0.0,0.0,0.0,6.82,59.0,5.25,1.83,0.59,3.12,5.0,14.59,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.14,0.02,0.27,0.08,0.08,0.12,0.0,0.0,0.0,0.0,7.33</t>
   </si>
   <si>
     <t>also because if you do that to your childrens are learning what their parents show them and also because that is not going to help that much the childrens</t>
   </si>
   <si>
-    <t>320,0.0,12.28,0.0,0.05,0.83,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,310,5.0,14.59,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
+    <t>9.83,5.42,1.83,3.52,0.52,0.0,12.28,0.0,0.05,0.83,0,0,0.0,0.0,0.0,0.22,0.07,0.31,0.1,0.1,0.12,0.02,0.0,0.0,0.0,3.0,59.0,5.25,1.83,0.59,3.12,5.0,14.59,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.14,0.02,0.27,0.08,0.08,0.12,0.0,0.0,0.0,0.0,7.33</t>
   </si>
   <si>
     <t>no</t>
@@ -624,7 +624,7 @@
     <t>ing to help that much the childrens</t>
   </si>
   <si>
-    <t>255,0.0,14.34,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.14,0.0,446,0.25,16.76,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.14,0.0</t>
+    <t>23.5,5.43,1.46,1.17,1.24,0.0,14.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.11,0.11,0.02,0.02,0.2,0.0,0.0,7.73,19.0,5.87,2.36,2.34,1.0,0.25,16.76,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.07,0.07,0.13,0.04,0.0,0.0,0.0,6.82</t>
   </si>
   <si>
     <t>p</t>
@@ -639,13 +639,13 @@
     <t>ts decide although they may not like it. They will learn that the parents know whats best for them.</t>
   </si>
   <si>
-    <t>129,0.0,12.04,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,310,5.0,14.59,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>310,5.0,14.59,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,76,1.0,9.18,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>446,0.25,16.76,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.14,0.0,183,0.5,11.14,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.25,0.0,0.0</t>
+    <t>7.67,5.61,0.71,1.76,0.41,0.0,12.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.17,0.09,0.09,0.09,0.0,0.0,0.0,0.0,15.8,59.0,5.25,1.83,0.59,3.12,5.0,14.59,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.14,0.02,0.27,0.08,0.08,0.12,0.0,0.0,0.0,0.0,7.33</t>
+  </si>
+  <si>
+    <t>59.0,5.25,1.83,0.59,3.12,5.0,14.59,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.14,0.02,0.27,0.08,0.08,0.12,0.0,0.0,0.0,0.0,7.33,15.0,5.07,0.46,0.59,0.79,1.0,9.18,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.0,0.27,0.0,0.0,0.27,0.0,0.0,0.0,0.0,6.75</t>
+  </si>
+  <si>
+    <t>19.0,5.87,2.36,2.34,1.0,0.25,16.76,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.07,0.07,0.13,0.04,0.0,0.0,0.0,6.82,18.0,5.08,1.12,1.17,0.95,0.5,11.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.03,0.03,0.08,0.0,0.0,0.0,0.0,6.88</t>
   </si>
   <si>
     <t>bi</t>
@@ -654,25 +654,25 @@
     <t>strict, than to abuse a kid.</t>
   </si>
   <si>
-    <t>344,1.5,15.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.3,0.29,0.5,137,1.0,15.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>197,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0,79,1.0,14.01,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>79,1.0,14.01,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,291,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>183,0.5,11.14,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.25,0.0,0.0,214,0.0,13.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,1.0,13.8,0.0,0.18,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,520,1.0,15.14,0.0,0.02,0.83,0.0,0.0,0.0,0.2,0.5,0.45,0.14,0.5</t>
-  </si>
-  <si>
-    <t>197,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0,83,0.0,13.99,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>520,1.0,15.14,0.0,0.02,0.83,0.0,0.0,0.0,0.2,0.5,0.45,0.14,0.5,205,0.33,11.47,0.0,0.0,1.0,0.0,0.03,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>30.5,5.64,1.89,1.17,1.61,1.5,15.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.03,0.03,0.07,0.03,0.2,0.5,0.5,7.0,24.0,5.71,0.74,0.59,1.27,1.0,15.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.13,0.25,0.0,0.0,0.04,0.0,0.0,0.0,0.0,8.17</t>
+  </si>
+  <si>
+    <t>18.5,5.32,1.15,1.17,0.98,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.11,0.22,0.03,0.03,0.08,0.03,0.0,0.0,0.0,11.09,14.0,5.64,0.43,0.59,0.74,1.0,14.01,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.29,0.07,0.07,0.14,0.0,0.0,0.0,0.0,20.0</t>
+  </si>
+  <si>
+    <t>14.0,5.64,0.43,0.59,0.74,1.0,14.01,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.29,0.07,0.07,0.14,0.0,0.0,0.0,0.0,20.0,27.5,5.29,1.7,1.17,1.45,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.31,0.09,0.09,0.11,0.04,0.0,0.0,0.0,7.5</t>
+  </si>
+  <si>
+    <t>18.0,5.08,1.12,1.17,0.95,0.5,11.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.03,0.03,0.08,0.0,0.0,0.0,0.0,6.88,12.67,5.63,1.18,1.76,0.67,0.0,13.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.03,0.03,0.05,0.03,0.0,0.0,0.0,11.5</t>
+  </si>
+  <si>
+    <t>28.0,5.25,0.87,0.59,1.48,1.0,13.8,0.0,0.18,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,12.8,15.17,5.71,2.82,3.52,0.8,1.0,15.14,0.0,0.02,0.83,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.12,0.12,0.15,0.03,0.4,0.5,0.5,5.8</t>
+  </si>
+  <si>
+    <t>18.5,5.32,1.15,1.17,0.98,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.11,0.22,0.03,0.03,0.08,0.03,0.0,0.0,0.0,11.09,7.0,5.93,0.43,1.17,0.37,0.0,13.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.0,0.0,0.14,0.07,0.0,0.0,0.0,8.5</t>
+  </si>
+  <si>
+    <t>15.17,5.71,2.82,3.52,0.8,1.0,15.14,0.0,0.02,0.83,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.12,0.12,0.15,0.03,0.4,0.5,0.5,5.8,13.0,5.26,1.21,1.76,0.69,0.33,11.47,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.08,0.18,0.08,0.08,0.08,0.0,0.0,0.0,0.0,7.63</t>
   </si>
   <si>
     <t>pti</t>
@@ -687,13 +687,13 @@
     <t>r/&gt; Yes, I agree that if it gets to a certain point you can lightly spank the kid, but never to the point where you're beating the kid.</t>
   </si>
   <si>
-    <t>135,1.0,16.15,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,172,1.0,12.9,0.0,0.0,1.0,0.0,0.03,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>141,1.0,14.06,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,214,0.0,13.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>122,0.0,13.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,520,1.0,15.14,0.0,0.02,0.83,0.0,0.0,0.0,0.2,0.5,0.45,0.14,0.5</t>
+    <t>23.0,5.87,0.71,0.59,1.22,1.0,16.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.0,0.35,0.13,0.13,0.13,0.04,0.0,0.0,0.0,3.25,34.0,5.06,1.05,0.59,1.8,1.0,12.9,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.12,0.06,0.21,0.12,0.12,0.06,0.0,0.0,0.0,0.0,3.38</t>
+  </si>
+  <si>
+    <t>26.0,5.42,0.81,0.59,1.37,1.0,14.06,0.0,0.04,1.0,2,0,0.0,0.0,0.0,0.08,0.08,0.19,0.12,0.12,0.04,0.0,0.0,0.0,0.0,7.0,12.67,5.63,1.18,1.76,0.67,0.0,13.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.03,0.03,0.05,0.03,0.0,0.0,0.0,11.5</t>
+  </si>
+  <si>
+    <t>23.0,5.3,0.71,0.59,1.22,0.0,13.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.3,0.09,0.09,0.09,0.04,0.0,0.0,0.0,14.5,15.17,5.71,2.82,3.52,0.8,1.0,15.14,0.0,0.02,0.83,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.12,0.12,0.15,0.03,0.4,0.5,0.5,5.8</t>
   </si>
   <si>
     <t>the</t>
@@ -708,37 +708,37 @@
     <t>just scared that their parents would hit them</t>
   </si>
   <si>
-    <t>310,5.0,14.59,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,122,0.5,13.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>122,0.5,13.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,147,1.0,13.8,0.0,0.18,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>122,0.0,13.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,76,1.0,9.18,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>90,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.15,0.0,0.0,446,0.25,16.76,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.14,0.0</t>
-  </si>
-  <si>
-    <t>123,1.0,13.85,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.14,0.0,111,1.0,12.75,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>76,1.0,9.18,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,197,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>197,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0,131,0.0,14.12,0.0,0.04,3.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>83,0.0,13.99,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,103,0.0,19.86,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>141,1.0,14.06,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,79,1.0,14.01,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>205,0.33,11.47,0.0,0.0,1.0,0.0,0.03,0.0,0.1,0.15,0.15,0.0,0.0,83,0.0,13.99,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>291,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0,520,1.0,15.14,0.0,0.02,0.83,0.0,0.0,0.0,0.2,0.5,0.45,0.14,0.5</t>
+    <t>59.0,5.25,1.83,0.59,3.12,5.0,14.59,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.14,0.02,0.27,0.08,0.08,0.12,0.0,0.0,0.0,0.0,7.33,10.5,5.81,0.65,1.17,0.56,0.5,13.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.33,0.05,0.05,0.19,0.0,0.0,0.0,0.0,16.0</t>
+  </si>
+  <si>
+    <t>10.5,5.81,0.65,1.17,0.56,0.5,13.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.33,0.05,0.05,0.19,0.0,0.0,0.0,0.0,16.0,28.0,5.25,0.87,0.59,1.48,1.0,13.8,0.0,0.18,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,12.8</t>
+  </si>
+  <si>
+    <t>23.0,5.3,0.71,0.59,1.22,0.0,13.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.3,0.09,0.09,0.09,0.04,0.0,0.0,0.0,14.5,15.0,5.07,0.46,0.59,0.79,1.0,9.18,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.0,0.27,0.0,0.0,0.27,0.0,0.0,0.0,0.0,6.75</t>
+  </si>
+  <si>
+    <t>15.0,6.0,0.46,0.59,0.79,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,8.0,19.0,5.87,2.36,2.34,1.0,0.25,16.76,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.07,0.07,0.13,0.04,0.0,0.0,0.0,6.82</t>
+  </si>
+  <si>
+    <t>11.0,5.59,0.68,1.17,0.58,1.0,13.85,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.27,0.09,0.09,0.23,0.0,0.0,0.0,0.0,6.43,21.0,5.29,0.65,0.59,1.11,1.0,12.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.38,0.05,0.05,0.14,0.0,0.0,0.0,0.0,11.43</t>
+  </si>
+  <si>
+    <t>15.0,5.07,0.46,0.59,0.79,1.0,9.18,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.0,0.27,0.0,0.0,0.27,0.0,0.0,0.0,0.0,6.75,18.5,5.32,1.15,1.17,0.98,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.11,0.22,0.03,0.03,0.08,0.03,0.0,0.0,0.0,11.09</t>
+  </si>
+  <si>
+    <t>18.5,5.32,1.15,1.17,0.98,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.11,0.22,0.03,0.03,0.08,0.03,0.0,0.0,0.0,11.09,23.0,5.7,0.71,0.59,1.22,0.0,14.12,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.17,0.04,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,7.71</t>
+  </si>
+  <si>
+    <t>7.0,5.93,0.43,1.17,0.37,0.0,13.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.0,0.0,0.14,0.07,0.0,0.0,0.0,8.5,16.0,6.44,0.5,0.59,0.85,0.0,19.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.13,0.19,0.13,0.13,0.06,0.06,0.0,0.0,0.0,9.67</t>
+  </si>
+  <si>
+    <t>26.0,5.42,0.81,0.59,1.37,1.0,14.06,0.0,0.04,1.0,2,0,0.0,0.0,0.0,0.08,0.08,0.19,0.12,0.12,0.04,0.0,0.0,0.0,0.0,7.0,14.0,5.64,0.43,0.59,0.74,1.0,14.01,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.29,0.07,0.07,0.14,0.0,0.0,0.0,0.0,20.0</t>
+  </si>
+  <si>
+    <t>13.0,5.26,1.21,1.76,0.69,0.33,11.47,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.08,0.18,0.08,0.08,0.08,0.0,0.0,0.0,0.0,7.63,7.0,5.93,0.43,1.17,0.37,0.0,13.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.0,0.0,0.14,0.07,0.0,0.0,0.0,8.5</t>
+  </si>
+  <si>
+    <t>27.5,5.29,1.7,1.17,1.45,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.31,0.09,0.09,0.11,0.04,0.0,0.0,0.0,7.5,15.17,5.71,2.82,3.52,0.8,1.0,15.14,0.0,0.02,0.83,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.12,0.12,0.15,0.03,0.4,0.5,0.5,5.8</t>
   </si>
   <si>
     <t>fo</t>
@@ -753,31 +753,31 @@
     <t>r parents because they would only learn how to be scared. They wont do the wrong action again next time, not because they've learned their lesson, but because they are just scared that their parents would hit them</t>
   </si>
   <si>
-    <t>183,0.5,11.14,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.25,0.0,0.0,344,1.5,15.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.3,0.29,0.5</t>
-  </si>
-  <si>
-    <t>446,0.25,16.76,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.14,0.0,123,1.0,13.85,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.14,0.0</t>
-  </si>
-  <si>
-    <t>131,0.0,14.12,0.0,0.04,3.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,83,0.0,13.99,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>79,1.0,14.01,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,172,1.0,12.9,0.0,0.0,1.0,0.0,0.03,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>103,0.0,19.86,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,214,0.0,13.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>115,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,310,5.0,14.59,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,1.0,13.8,0.0,0.18,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,194,0.5,17.26,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>111,1.0,12.75,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,291,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>115,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,520,1.0,15.14,0.0,0.02,0.83,0.0,0.0,0.0,0.2,0.5,0.45,0.14,0.5</t>
+    <t>18.0,5.08,1.12,1.17,0.95,0.5,11.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.03,0.03,0.08,0.0,0.0,0.0,0.0,6.88,30.5,5.64,1.89,1.17,1.61,1.5,15.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.03,0.03,0.07,0.03,0.2,0.5,0.5,7.0</t>
+  </si>
+  <si>
+    <t>19.0,5.87,2.36,2.34,1.0,0.25,16.76,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.07,0.07,0.13,0.04,0.0,0.0,0.0,6.82,11.0,5.59,0.68,1.17,0.58,1.0,13.85,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.27,0.09,0.09,0.23,0.0,0.0,0.0,0.0,6.43</t>
+  </si>
+  <si>
+    <t>23.0,5.7,0.71,0.59,1.22,0.0,14.12,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.17,0.04,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,7.71,7.0,5.93,0.43,1.17,0.37,0.0,13.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.0,0.0,0.14,0.07,0.0,0.0,0.0,8.5</t>
+  </si>
+  <si>
+    <t>14.0,5.64,0.43,0.59,0.74,1.0,14.01,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.29,0.07,0.07,0.14,0.0,0.0,0.0,0.0,20.0,34.0,5.06,1.05,0.59,1.8,1.0,12.9,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.12,0.06,0.21,0.12,0.12,0.06,0.0,0.0,0.0,0.0,3.38</t>
+  </si>
+  <si>
+    <t>16.0,6.44,0.5,0.59,0.85,0.0,19.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.13,0.19,0.13,0.13,0.06,0.06,0.0,0.0,0.0,9.67,12.67,5.63,1.18,1.76,0.67,0.0,13.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.03,0.03,0.05,0.03,0.0,0.0,0.0,11.5</t>
+  </si>
+  <si>
+    <t>20.0,5.75,0.62,0.59,1.06,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.0,0.4,0.05,0.05,0.05,0.0,0.0,0.0,0.0,23.33,59.0,5.25,1.83,0.59,3.12,5.0,14.59,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.14,0.02,0.27,0.08,0.08,0.12,0.0,0.0,0.0,0.0,7.33</t>
+  </si>
+  <si>
+    <t>28.0,5.25,0.87,0.59,1.48,1.0,13.8,0.0,0.18,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,12.8,16.0,6.06,0.99,1.17,0.85,0.5,17.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.19,0.09,0.09,0.19,0.03,0.0,0.0,0.0,11.29</t>
+  </si>
+  <si>
+    <t>21.0,5.29,0.65,0.59,1.11,1.0,12.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.38,0.05,0.05,0.14,0.0,0.0,0.0,0.0,11.43,27.5,5.29,1.7,1.17,1.45,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.31,0.09,0.09,0.11,0.04,0.0,0.0,0.0,7.5</t>
+  </si>
+  <si>
+    <t>20.0,5.75,0.62,0.59,1.06,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.0,0.4,0.05,0.05,0.05,0.0,0.0,0.0,0.0,23.33,15.17,5.71,2.82,3.52,0.8,1.0,15.14,0.0,0.02,0.83,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.12,0.12,0.15,0.03,0.4,0.5,0.5,5.8</t>
   </si>
   <si>
     <t>ju</t>
@@ -792,16 +792,16 @@
     <t>red that their parents would hit them</t>
   </si>
   <si>
-    <t>68,0.0,8.97,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,291,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>137,1.0,15.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,111,1.0,12.75,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>141,1.0,14.06,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,197,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>214,0.0,13.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,520,1.0,15.14,0.0,0.02,0.83,0.0,0.0,0.0,0.2,0.5,0.45,0.14,0.5</t>
+    <t>14.0,4.86,0.43,0.59,0.74,0.0,8.97,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.21,0.36,0.0,0.0,0.0,0.0,0.0,0.0,0.0,11.33,27.5,5.29,1.7,1.17,1.45,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.31,0.09,0.09,0.11,0.04,0.0,0.0,0.0,7.5</t>
+  </si>
+  <si>
+    <t>24.0,5.71,0.74,0.59,1.27,1.0,15.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.13,0.25,0.0,0.0,0.04,0.0,0.0,0.0,0.0,8.17,21.0,5.29,0.65,0.59,1.11,1.0,12.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.38,0.05,0.05,0.14,0.0,0.0,0.0,0.0,11.43</t>
+  </si>
+  <si>
+    <t>26.0,5.42,0.81,0.59,1.37,1.0,14.06,0.0,0.04,1.0,2,0,0.0,0.0,0.0,0.08,0.08,0.19,0.12,0.12,0.04,0.0,0.0,0.0,0.0,7.0,18.5,5.32,1.15,1.17,0.98,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.11,0.22,0.03,0.03,0.08,0.03,0.0,0.0,0.0,11.09</t>
+  </si>
+  <si>
+    <t>12.67,5.63,1.18,1.76,0.67,0.0,13.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.03,0.03,0.05,0.03,0.0,0.0,0.0,11.5,15.17,5.71,2.82,3.52,0.8,1.0,15.14,0.0,0.02,0.83,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.12,0.12,0.15,0.03,0.4,0.5,0.5,5.8</t>
   </si>
   <si>
     <t>w</t>
@@ -816,28 +816,28 @@
     <t>action again next time, not because they've learned their lesson, but because they are just scared that their parents would hit them</t>
   </si>
   <si>
-    <t>172,1.0,12.9,0.0,0.0,1.0,0.0,0.03,0.0,0.05,0.1,0.15,0.0,0.0,115,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>227,0.33,18.16,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.35,0.0,0.0,129,0.0,12.04,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>131,0.0,14.12,0.0,0.04,3.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,76,1.0,9.18,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>115,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,147,0.33,11.84,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>183,0.5,11.14,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.25,0.0,0.0,83,0.0,13.99,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>164,0.0,13.59,0.0,0.0,5.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0,131,0.0,14.12,0.0,0.04,3.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>129,0.0,12.04,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,291,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>520,1.0,15.14,0.0,0.02,0.83,0.0,0.0,0.0,0.2,0.5,0.45,0.14,0.5,122,0.5,13.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>34.0,5.06,1.05,0.59,1.8,1.0,12.9,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.12,0.06,0.21,0.12,0.12,0.06,0.0,0.0,0.0,0.0,3.38,20.0,5.75,0.62,0.59,1.06,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.0,0.4,0.05,0.05,0.05,0.0,0.0,0.0,0.0,23.33</t>
+  </si>
+  <si>
+    <t>12.0,6.31,1.12,1.76,0.63,0.33,18.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.0,0.0,8.36,7.67,5.61,0.71,1.76,0.41,0.0,12.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.17,0.09,0.09,0.09,0.0,0.0,0.0,0.0,15.8</t>
+  </si>
+  <si>
+    <t>23.0,5.7,0.71,0.59,1.22,0.0,14.12,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.17,0.04,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,7.71,15.0,5.07,0.46,0.59,0.79,1.0,9.18,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.0,0.27,0.0,0.0,0.27,0.0,0.0,0.0,0.0,6.75</t>
+  </si>
+  <si>
+    <t>20.0,5.75,0.62,0.59,1.06,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.0,0.4,0.05,0.05,0.05,0.0,0.0,0.0,0.0,23.33,9.33,5.25,0.87,1.76,0.49,0.33,11.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.11,0.11,0.21,0.04,0.2,0.0,0.0,8.0</t>
+  </si>
+  <si>
+    <t>18.0,5.08,1.12,1.17,0.95,0.5,11.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.03,0.03,0.08,0.0,0.0,0.0,0.0,6.88,7.0,5.93,0.43,1.17,0.37,0.0,13.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.0,0.0,0.14,0.07,0.0,0.0,0.0,8.5</t>
+  </si>
+  <si>
+    <t>30.0,5.47,0.93,0.59,1.59,0.0,13.59,0.0,0.0,5.0,0,0,0.0,0.0,0.0,0.13,0.07,0.2,0.07,0.07,0.1,0.07,0.0,0.0,0.0,8.5,23.0,5.7,0.71,0.59,1.22,0.0,14.12,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.17,0.04,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,7.71</t>
+  </si>
+  <si>
+    <t>7.67,5.61,0.71,1.76,0.41,0.0,12.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.17,0.09,0.09,0.09,0.0,0.0,0.0,0.0,15.8,27.5,5.29,1.7,1.17,1.45,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.31,0.09,0.09,0.11,0.04,0.0,0.0,0.0,7.5</t>
+  </si>
+  <si>
+    <t>15.17,5.71,2.82,3.52,0.8,1.0,15.14,0.0,0.02,0.83,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.12,0.12,0.15,0.03,0.4,0.5,0.5,5.8,10.5,5.81,0.65,1.17,0.56,0.5,13.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.33,0.05,0.05,0.19,0.0,0.0,0.0,0.0,16.0</t>
   </si>
   <si>
     <t>hey</t>
@@ -855,31 +855,31 @@
     <t>heir parents need to teach them different ways.</t>
   </si>
   <si>
-    <t>149,1.0,9.67,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,164,0.0,13.59,0.0,0.0,5.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>183,0.5,11.14,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.25,0.0,0.0,111,1.0,12.75,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>446,0.25,16.76,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.14,0.0,164,0.0,13.59,0.0,0.0,5.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0</t>
+    <t>33.0,4.52,1.02,0.59,1.74,1.0,9.67,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.12,0.12,0.18,0.09,0.09,0.06,0.0,0.0,0.0,0.0,7.43,30.0,5.47,0.93,0.59,1.59,0.0,13.59,0.0,0.0,5.0,0,0,0.0,0.0,0.0,0.13,0.07,0.2,0.07,0.07,0.1,0.07,0.0,0.0,0.0,8.5</t>
+  </si>
+  <si>
+    <t>18.0,5.08,1.12,1.17,0.95,0.5,11.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.03,0.03,0.08,0.0,0.0,0.0,0.0,6.88,21.0,5.29,0.65,0.59,1.11,1.0,12.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.38,0.05,0.05,0.14,0.0,0.0,0.0,0.0,11.43</t>
+  </si>
+  <si>
+    <t>19.0,5.87,2.36,2.34,1.0,0.25,16.76,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.07,0.07,0.13,0.04,0.0,0.0,0.0,6.82,30.0,5.47,0.93,0.59,1.59,0.0,13.59,0.0,0.0,5.0,0,0,0.0,0.0,0.0,0.13,0.07,0.2,0.07,0.07,0.1,0.07,0.0,0.0,0.0,8.5</t>
   </si>
   <si>
     <t>doing wrong..</t>
   </si>
   <si>
-    <t>122,0.5,13.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,227,0.33,18.16,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>291,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0,76,1.0,9.18,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>149,1.0,9.67,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,68,0.0,8.97,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>291,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0,122,0.5,13.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>520,1.0,15.14,0.0,0.02,0.83,0.0,0.0,0.0,0.2,0.5,0.45,0.14,0.5,83,0.0,13.99,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>10.5,5.81,0.65,1.17,0.56,0.5,13.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.33,0.05,0.05,0.19,0.0,0.0,0.0,0.0,16.0,12.0,6.31,1.12,1.76,0.63,0.33,18.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.0,0.0,8.36</t>
+  </si>
+  <si>
+    <t>27.5,5.29,1.7,1.17,1.45,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.31,0.09,0.09,0.11,0.04,0.0,0.0,0.0,7.5,15.0,5.07,0.46,0.59,0.79,1.0,9.18,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.0,0.27,0.0,0.0,0.27,0.0,0.0,0.0,0.0,6.75</t>
+  </si>
+  <si>
+    <t>33.0,4.52,1.02,0.59,1.74,1.0,9.67,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.12,0.12,0.18,0.09,0.09,0.06,0.0,0.0,0.0,0.0,7.43,14.0,4.86,0.43,0.59,0.74,0.0,8.97,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.21,0.36,0.0,0.0,0.0,0.0,0.0,0.0,0.0,11.33</t>
+  </si>
+  <si>
+    <t>27.5,5.29,1.7,1.17,1.45,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.31,0.09,0.09,0.11,0.04,0.0,0.0,0.0,7.5,10.5,5.81,0.65,1.17,0.56,0.5,13.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.33,0.05,0.05,0.19,0.0,0.0,0.0,0.0,16.0</t>
+  </si>
+  <si>
+    <t>15.17,5.71,2.82,3.52,0.8,1.0,15.14,0.0,0.02,0.83,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.12,0.12,0.15,0.03,0.4,0.5,0.5,5.8,7.0,5.93,0.43,1.17,0.37,0.0,13.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.0,0.0,0.14,0.07,0.0,0.0,0.0,8.5</t>
   </si>
   <si>
     <t>gi</t>
@@ -894,61 +894,61 @@
     <t>r child.</t>
   </si>
   <si>
-    <t>164,0.0,13.59,0.0,0.0,5.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0,76,1.0,9.18,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,1.0,13.8,0.0,0.18,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,141,1.0,14.06,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>123,1.0,13.85,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.14,0.0,103,0.0,19.86,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>141,1.0,14.06,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,255,0.0,14.34,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.14,0.0</t>
-  </si>
-  <si>
-    <t>149,1.0,9.67,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,123,1.0,13.85,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.14,0.0</t>
-  </si>
-  <si>
-    <t>255,0.0,14.34,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.14,0.0,79,1.0,14.01,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>79,1.0,14.01,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,183,0.5,11.14,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>291,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0,137,1.0,15.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>344,1.5,15.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.3,0.29,0.5,214,0.0,13.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>320,0.0,12.28,0.0,0.05,0.83,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,141,1.0,14.06,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>141,1.0,14.06,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,446,0.25,16.76,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.14,0.0</t>
-  </si>
-  <si>
-    <t>255,0.0,14.34,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.14,0.0,115,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>141,1.0,14.06,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,291,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>197,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0,149,1.0,9.67,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>183,0.5,11.14,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.25,0.0,0.0,135,1.0,16.15,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>164,0.0,13.59,0.0,0.0,5.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0,111,1.0,12.75,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>255,0.0,14.34,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.14,0.0,83,0.0,13.99,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>197,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0,122,0.5,13.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>446,0.25,16.76,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.14,0.0,194,0.5,17.26,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>30.0,5.47,0.93,0.59,1.59,0.0,13.59,0.0,0.0,5.0,0,0,0.0,0.0,0.0,0.13,0.07,0.2,0.07,0.07,0.1,0.07,0.0,0.0,0.0,8.5,15.0,5.07,0.46,0.59,0.79,1.0,9.18,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.0,0.27,0.0,0.0,0.27,0.0,0.0,0.0,0.0,6.75</t>
+  </si>
+  <si>
+    <t>28.0,5.25,0.87,0.59,1.48,1.0,13.8,0.0,0.18,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,12.8,26.0,5.42,0.81,0.59,1.37,1.0,14.06,0.0,0.04,1.0,2,0,0.0,0.0,0.0,0.08,0.08,0.19,0.12,0.12,0.04,0.0,0.0,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>11.0,5.59,0.68,1.17,0.58,1.0,13.85,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.27,0.09,0.09,0.23,0.0,0.0,0.0,0.0,6.43,16.0,6.44,0.5,0.59,0.85,0.0,19.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.13,0.19,0.13,0.13,0.06,0.06,0.0,0.0,0.0,9.67</t>
+  </si>
+  <si>
+    <t>26.0,5.42,0.81,0.59,1.37,1.0,14.06,0.0,0.04,1.0,2,0,0.0,0.0,0.0,0.08,0.08,0.19,0.12,0.12,0.04,0.0,0.0,0.0,0.0,7.0,23.5,5.43,1.46,1.17,1.24,0.0,14.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.11,0.11,0.02,0.02,0.2,0.0,0.0,7.73</t>
+  </si>
+  <si>
+    <t>33.0,4.52,1.02,0.59,1.74,1.0,9.67,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.12,0.12,0.18,0.09,0.09,0.06,0.0,0.0,0.0,0.0,7.43,11.0,5.59,0.68,1.17,0.58,1.0,13.85,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.27,0.09,0.09,0.23,0.0,0.0,0.0,0.0,6.43</t>
+  </si>
+  <si>
+    <t>23.5,5.43,1.46,1.17,1.24,0.0,14.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.11,0.11,0.02,0.02,0.2,0.0,0.0,7.73,14.0,5.64,0.43,0.59,0.74,1.0,14.01,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.29,0.07,0.07,0.14,0.0,0.0,0.0,0.0,20.0</t>
+  </si>
+  <si>
+    <t>14.0,5.64,0.43,0.59,0.74,1.0,14.01,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.29,0.07,0.07,0.14,0.0,0.0,0.0,0.0,20.0,18.0,5.08,1.12,1.17,0.95,0.5,11.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.03,0.03,0.08,0.0,0.0,0.0,0.0,6.88</t>
+  </si>
+  <si>
+    <t>27.5,5.29,1.7,1.17,1.45,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.31,0.09,0.09,0.11,0.04,0.0,0.0,0.0,7.5,24.0,5.71,0.74,0.59,1.27,1.0,15.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.13,0.25,0.0,0.0,0.04,0.0,0.0,0.0,0.0,8.17</t>
+  </si>
+  <si>
+    <t>30.5,5.64,1.89,1.17,1.61,1.5,15.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.03,0.03,0.07,0.03,0.2,0.5,0.5,7.0,12.67,5.63,1.18,1.76,0.67,0.0,13.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.03,0.03,0.05,0.03,0.0,0.0,0.0,11.5</t>
+  </si>
+  <si>
+    <t>9.83,5.42,1.83,3.52,0.52,0.0,12.28,0.0,0.05,0.83,0,0,0.0,0.0,0.0,0.22,0.07,0.31,0.1,0.1,0.12,0.02,0.0,0.0,0.0,3.0,26.0,5.42,0.81,0.59,1.37,1.0,14.06,0.0,0.04,1.0,2,0,0.0,0.0,0.0,0.08,0.08,0.19,0.12,0.12,0.04,0.0,0.0,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>26.0,5.42,0.81,0.59,1.37,1.0,14.06,0.0,0.04,1.0,2,0,0.0,0.0,0.0,0.08,0.08,0.19,0.12,0.12,0.04,0.0,0.0,0.0,0.0,7.0,19.0,5.87,2.36,2.34,1.0,0.25,16.76,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.07,0.07,0.13,0.04,0.0,0.0,0.0,6.82</t>
+  </si>
+  <si>
+    <t>23.5,5.43,1.46,1.17,1.24,0.0,14.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.11,0.11,0.02,0.02,0.2,0.0,0.0,7.73,20.0,5.75,0.62,0.59,1.06,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.0,0.4,0.05,0.05,0.05,0.0,0.0,0.0,0.0,23.33</t>
+  </si>
+  <si>
+    <t>26.0,5.42,0.81,0.59,1.37,1.0,14.06,0.0,0.04,1.0,2,0,0.0,0.0,0.0,0.08,0.08,0.19,0.12,0.12,0.04,0.0,0.0,0.0,0.0,7.0,27.5,5.29,1.7,1.17,1.45,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.31,0.09,0.09,0.11,0.04,0.0,0.0,0.0,7.5</t>
+  </si>
+  <si>
+    <t>18.5,5.32,1.15,1.17,0.98,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.11,0.22,0.03,0.03,0.08,0.03,0.0,0.0,0.0,11.09,33.0,4.52,1.02,0.59,1.74,1.0,9.67,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.12,0.12,0.18,0.09,0.09,0.06,0.0,0.0,0.0,0.0,7.43</t>
+  </si>
+  <si>
+    <t>18.0,5.08,1.12,1.17,0.95,0.5,11.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.03,0.03,0.08,0.0,0.0,0.0,0.0,6.88,23.0,5.87,0.71,0.59,1.22,1.0,16.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.0,0.35,0.13,0.13,0.13,0.04,0.0,0.0,0.0,3.25</t>
+  </si>
+  <si>
+    <t>30.0,5.47,0.93,0.59,1.59,0.0,13.59,0.0,0.0,5.0,0,0,0.0,0.0,0.0,0.13,0.07,0.2,0.07,0.07,0.1,0.07,0.0,0.0,0.0,8.5,21.0,5.29,0.65,0.59,1.11,1.0,12.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.38,0.05,0.05,0.14,0.0,0.0,0.0,0.0,11.43</t>
+  </si>
+  <si>
+    <t>23.5,5.43,1.46,1.17,1.24,0.0,14.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.11,0.11,0.02,0.02,0.2,0.0,0.0,7.73,7.0,5.93,0.43,1.17,0.37,0.0,13.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.0,0.0,0.14,0.07,0.0,0.0,0.0,8.5</t>
+  </si>
+  <si>
+    <t>18.5,5.32,1.15,1.17,0.98,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.11,0.22,0.03,0.03,0.08,0.03,0.0,0.0,0.0,11.09,10.5,5.81,0.65,1.17,0.56,0.5,13.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.33,0.05,0.05,0.19,0.0,0.0,0.0,0.0,16.0</t>
+  </si>
+  <si>
+    <t>19.0,5.87,2.36,2.34,1.0,0.25,16.76,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.07,0.07,0.13,0.04,0.0,0.0,0.0,6.82,16.0,6.06,0.99,1.17,0.85,0.5,17.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.19,0.09,0.09,0.19,0.03,0.0,0.0,0.0,11.29</t>
   </si>
   <si>
     <t>my</t>
@@ -966,22 +966,22 @@
     <t>on it should always be the last resort.</t>
   </si>
   <si>
-    <t>320,0.0,12.28,0.0,0.05,0.83,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,76,1.0,9.18,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>164,0.0,13.59,0.0,0.0,5.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0,122,0.0,13.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>131,0.0,14.12,0.0,0.04,3.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,115,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>111,1.0,12.75,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,255,0.0,14.34,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.14,0.0</t>
-  </si>
-  <si>
-    <t>227,0.33,18.16,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.35,0.0,0.0,103,0.0,19.86,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>344,1.5,15.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.3,0.29,0.5,255,0.0,14.34,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.14,0.0</t>
+    <t>9.83,5.42,1.83,3.52,0.52,0.0,12.28,0.0,0.05,0.83,0,0,0.0,0.0,0.0,0.22,0.07,0.31,0.1,0.1,0.12,0.02,0.0,0.0,0.0,3.0,15.0,5.07,0.46,0.59,0.79,1.0,9.18,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.0,0.27,0.0,0.0,0.27,0.0,0.0,0.0,0.0,6.75</t>
+  </si>
+  <si>
+    <t>30.0,5.47,0.93,0.59,1.59,0.0,13.59,0.0,0.0,5.0,0,0,0.0,0.0,0.0,0.13,0.07,0.2,0.07,0.07,0.1,0.07,0.0,0.0,0.0,8.5,23.0,5.3,0.71,0.59,1.22,0.0,13.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.3,0.09,0.09,0.09,0.04,0.0,0.0,0.0,14.5</t>
+  </si>
+  <si>
+    <t>23.0,5.7,0.71,0.59,1.22,0.0,14.12,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.17,0.04,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,7.71,20.0,5.75,0.62,0.59,1.06,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.0,0.4,0.05,0.05,0.05,0.0,0.0,0.0,0.0,23.33</t>
+  </si>
+  <si>
+    <t>21.0,5.29,0.65,0.59,1.11,1.0,12.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.38,0.05,0.05,0.14,0.0,0.0,0.0,0.0,11.43,23.5,5.43,1.46,1.17,1.24,0.0,14.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.11,0.11,0.02,0.02,0.2,0.0,0.0,7.73</t>
+  </si>
+  <si>
+    <t>12.0,6.31,1.12,1.76,0.63,0.33,18.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.0,0.0,8.36,16.0,6.44,0.5,0.59,0.85,0.0,19.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.13,0.19,0.13,0.13,0.06,0.06,0.0,0.0,0.0,9.67</t>
+  </si>
+  <si>
+    <t>30.5,5.64,1.89,1.17,1.61,1.5,15.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.03,0.03,0.07,0.03,0.2,0.5,0.5,7.0,23.5,5.43,1.46,1.17,1.24,0.0,14.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.11,0.11,0.02,0.02,0.2,0.0,0.0,7.73</t>
   </si>
   <si>
     <t>gre</t>
@@ -996,7 +996,7 @@
     <t>lts.</t>
   </si>
   <si>
-    <t>164,0.0,13.59,0.0,0.0,5.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0,520,1.0,15.14,0.0,0.02,0.83,0.0,0.0,0.0,0.2,0.5,0.45,0.14,0.5</t>
+    <t>30.0,5.47,0.93,0.59,1.59,0.0,13.59,0.0,0.0,5.0,0,0,0.0,0.0,0.0,0.13,0.07,0.2,0.07,0.07,0.1,0.07,0.0,0.0,0.0,8.5,15.17,5.71,2.82,3.52,0.8,1.0,15.14,0.0,0.02,0.83,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.12,0.12,0.15,0.03,0.4,0.5,0.5,5.8</t>
   </si>
   <si>
     <t>cau</t>
@@ -1005,10 +1005,10 @@
     <t>y've learned their lesson, but because they are just scared that their parents would hit them</t>
   </si>
   <si>
-    <t>147,0.33,11.84,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.15,0.0,0.0,141,1.0,14.06,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>320,0.0,12.28,0.0,0.05,0.83,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,520,1.0,15.14,0.0,0.02,0.83,0.0,0.0,0.0,0.2,0.5,0.45,0.14,0.5</t>
+    <t>9.33,5.25,0.87,1.76,0.49,0.33,11.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.11,0.11,0.21,0.04,0.2,0.0,0.0,8.0,26.0,5.42,0.81,0.59,1.37,1.0,14.06,0.0,0.04,1.0,2,0,0.0,0.0,0.0,0.08,0.08,0.19,0.12,0.12,0.04,0.0,0.0,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>9.83,5.42,1.83,3.52,0.52,0.0,12.28,0.0,0.05,0.83,0,0,0.0,0.0,0.0,0.22,0.07,0.31,0.1,0.1,0.12,0.02,0.0,0.0,0.0,3.0,15.17,5.71,2.82,3.52,0.8,1.0,15.14,0.0,0.02,0.83,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.12,0.12,0.15,0.03,0.4,0.5,0.5,5.8</t>
   </si>
   <si>
     <t>uld</t>
@@ -1023,40 +1023,40 @@
     <t>rn the value of respect for their parents because they would only learn how to be scared. They wont do the wrong action again next time, not because they've learned their lesson, but because they are just scared that their parents would hit them</t>
   </si>
   <si>
-    <t>310,5.0,14.59,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,103,0.0,19.86,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>344,1.5,15.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.3,0.29,0.5,147,1.0,13.8,0.0,0.18,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>90,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.15,0.0,0.0,122,0.0,13.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>344,1.5,15.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.3,0.29,0.5,76,1.0,9.18,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>164,0.0,13.59,0.0,0.0,5.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0,291,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>115,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,83,0.0,13.99,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>122,0.5,13.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,90,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>123,1.0,13.85,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.14,0.0,214,0.0,13.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>255,0.0,14.34,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.14,0.0,197,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>205,0.33,11.47,0.0,0.0,1.0,0.0,0.03,0.0,0.1,0.15,0.15,0.0,0.0,90,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>137,1.0,15.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,205,0.33,11.47,0.0,0.0,1.0,0.0,0.03,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>446,0.25,16.76,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.14,0.0,320,0.0,12.28,0.0,0.05,0.83,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
+    <t>59.0,5.25,1.83,0.59,3.12,5.0,14.59,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.14,0.02,0.27,0.08,0.08,0.12,0.0,0.0,0.0,0.0,7.33,16.0,6.44,0.5,0.59,0.85,0.0,19.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.13,0.19,0.13,0.13,0.06,0.06,0.0,0.0,0.0,9.67</t>
+  </si>
+  <si>
+    <t>30.5,5.64,1.89,1.17,1.61,1.5,15.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.03,0.03,0.07,0.03,0.2,0.5,0.5,7.0,28.0,5.25,0.87,0.59,1.48,1.0,13.8,0.0,0.18,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,12.8</t>
+  </si>
+  <si>
+    <t>15.0,6.0,0.46,0.59,0.79,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,8.0,23.0,5.3,0.71,0.59,1.22,0.0,13.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.3,0.09,0.09,0.09,0.04,0.0,0.0,0.0,14.5</t>
+  </si>
+  <si>
+    <t>30.5,5.64,1.89,1.17,1.61,1.5,15.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.03,0.03,0.07,0.03,0.2,0.5,0.5,7.0,15.0,5.07,0.46,0.59,0.79,1.0,9.18,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.0,0.27,0.0,0.0,0.27,0.0,0.0,0.0,0.0,6.75</t>
+  </si>
+  <si>
+    <t>30.0,5.47,0.93,0.59,1.59,0.0,13.59,0.0,0.0,5.0,0,0,0.0,0.0,0.0,0.13,0.07,0.2,0.07,0.07,0.1,0.07,0.0,0.0,0.0,8.5,27.5,5.29,1.7,1.17,1.45,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.31,0.09,0.09,0.11,0.04,0.0,0.0,0.0,7.5</t>
+  </si>
+  <si>
+    <t>20.0,5.75,0.62,0.59,1.06,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.0,0.4,0.05,0.05,0.05,0.0,0.0,0.0,0.0,23.33,7.0,5.93,0.43,1.17,0.37,0.0,13.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.0,0.0,0.14,0.07,0.0,0.0,0.0,8.5</t>
+  </si>
+  <si>
+    <t>10.5,5.81,0.65,1.17,0.56,0.5,13.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.33,0.05,0.05,0.19,0.0,0.0,0.0,0.0,16.0,15.0,6.0,0.46,0.59,0.79,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,8.0</t>
+  </si>
+  <si>
+    <t>11.0,5.59,0.68,1.17,0.58,1.0,13.85,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.27,0.09,0.09,0.23,0.0,0.0,0.0,0.0,6.43,12.67,5.63,1.18,1.76,0.67,0.0,13.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.03,0.03,0.05,0.03,0.0,0.0,0.0,11.5</t>
+  </si>
+  <si>
+    <t>23.5,5.43,1.46,1.17,1.24,0.0,14.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.11,0.11,0.02,0.02,0.2,0.0,0.0,7.73,18.5,5.32,1.15,1.17,0.98,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.11,0.22,0.03,0.03,0.08,0.03,0.0,0.0,0.0,11.09</t>
+  </si>
+  <si>
+    <t>13.0,5.26,1.21,1.76,0.69,0.33,11.47,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.08,0.18,0.08,0.08,0.08,0.0,0.0,0.0,0.0,7.63,15.0,6.0,0.46,0.59,0.79,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,8.0</t>
+  </si>
+  <si>
+    <t>24.0,5.71,0.74,0.59,1.27,1.0,15.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.13,0.25,0.0,0.0,0.04,0.0,0.0,0.0,0.0,8.17,13.0,5.26,1.21,1.76,0.69,0.33,11.47,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.08,0.18,0.08,0.08,0.08,0.0,0.0,0.0,0.0,7.63</t>
+  </si>
+  <si>
+    <t>19.0,5.87,2.36,2.34,1.0,0.25,16.76,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.07,0.07,0.13,0.04,0.0,0.0,0.0,6.82,9.83,5.42,1.83,3.52,0.52,0.0,12.28,0.0,0.05,0.83,0,0,0.0,0.0,0.0,0.22,0.07,0.31,0.1,0.1,0.12,0.02,0.0,0.0,0.0,3.0</t>
   </si>
   <si>
     <t>tin</t>
@@ -1071,22 +1071,22 @@
     <t>thing stolen. hm. same thing applies to this. you hit somebody then you get hit. you get told not to hit somebody, then told not to hit, then hit by the saame person</t>
   </si>
   <si>
-    <t>320,0.0,12.28,0.0,0.05,0.83,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,122,0.5,13.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>76,1.0,9.18,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,141,1.0,14.06,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>115,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,320,0.0,12.28,0.0,0.05,0.83,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>115,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,103,0.0,19.86,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>90,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.15,0.0,0.0,164,0.0,13.59,0.0,0.0,5.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>90,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.15,0.0,0.0,520,1.0,15.14,0.0,0.02,0.83,0.0,0.0,0.0,0.2,0.5,0.45,0.14,0.5</t>
+    <t>9.83,5.42,1.83,3.52,0.52,0.0,12.28,0.0,0.05,0.83,0,0,0.0,0.0,0.0,0.22,0.07,0.31,0.1,0.1,0.12,0.02,0.0,0.0,0.0,3.0,10.5,5.81,0.65,1.17,0.56,0.5,13.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.33,0.05,0.05,0.19,0.0,0.0,0.0,0.0,16.0</t>
+  </si>
+  <si>
+    <t>15.0,5.07,0.46,0.59,0.79,1.0,9.18,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.0,0.27,0.0,0.0,0.27,0.0,0.0,0.0,0.0,6.75,26.0,5.42,0.81,0.59,1.37,1.0,14.06,0.0,0.04,1.0,2,0,0.0,0.0,0.0,0.08,0.08,0.19,0.12,0.12,0.04,0.0,0.0,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>20.0,5.75,0.62,0.59,1.06,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.0,0.4,0.05,0.05,0.05,0.0,0.0,0.0,0.0,23.33,9.83,5.42,1.83,3.52,0.52,0.0,12.28,0.0,0.05,0.83,0,0,0.0,0.0,0.0,0.22,0.07,0.31,0.1,0.1,0.12,0.02,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>20.0,5.75,0.62,0.59,1.06,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.0,0.4,0.05,0.05,0.05,0.0,0.0,0.0,0.0,23.33,16.0,6.44,0.5,0.59,0.85,0.0,19.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.13,0.19,0.13,0.13,0.06,0.06,0.0,0.0,0.0,9.67</t>
+  </si>
+  <si>
+    <t>15.0,6.0,0.46,0.59,0.79,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,8.0,30.0,5.47,0.93,0.59,1.59,0.0,13.59,0.0,0.0,5.0,0,0,0.0,0.0,0.0,0.13,0.07,0.2,0.07,0.07,0.1,0.07,0.0,0.0,0.0,8.5</t>
+  </si>
+  <si>
+    <t>15.0,6.0,0.46,0.59,0.79,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,8.0,15.17,5.71,2.82,3.52,0.8,1.0,15.14,0.0,0.02,0.83,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.12,0.12,0.15,0.03,0.4,0.5,0.5,5.8</t>
   </si>
   <si>
     <t>par</t>
@@ -1098,61 +1098,61 @@
     <t>ould hit them</t>
   </si>
   <si>
-    <t>197,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0,90,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>129,0.0,12.04,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,320,0.0,12.28,0.0,0.05,0.83,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>310,5.0,14.59,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,149,1.0,9.67,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>183,0.5,11.14,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.25,0.0,0.0,129,0.0,12.04,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>103,0.0,19.86,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,291,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>149,1.0,9.67,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,255,0.0,14.34,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.14,0.0</t>
-  </si>
-  <si>
-    <t>320,0.0,12.28,0.0,0.05,0.83,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,90,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>291,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0,172,1.0,12.9,0.0,0.0,1.0,0.0,0.03,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,0.33,11.84,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.15,0.0,0.0,205,0.33,11.47,0.0,0.0,1.0,0.0,0.03,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>68,0.0,8.97,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,141,1.0,14.06,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>255,0.0,14.34,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.14,0.0,122,0.5,13.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>197,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0,137,1.0,15.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>164,0.0,13.59,0.0,0.0,5.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0,79,1.0,14.01,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>103,0.0,19.86,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,172,1.0,12.9,0.0,0.0,1.0,0.0,0.03,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>129,0.0,12.04,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,76,1.0,9.18,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>122,0.0,13.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,83,0.0,13.99,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>172,1.0,12.9,0.0,0.0,1.0,0.0,0.03,0.0,0.05,0.1,0.15,0.0,0.0,90,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>122,0.0,13.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,194,0.5,17.26,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>520,1.0,15.14,0.0,0.02,0.83,0.0,0.0,0.0,0.2,0.5,0.45,0.14,0.5,255,0.0,14.34,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.14,0.0</t>
+    <t>18.5,5.32,1.15,1.17,0.98,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.11,0.22,0.03,0.03,0.08,0.03,0.0,0.0,0.0,11.09,15.0,6.0,0.46,0.59,0.79,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,8.0</t>
+  </si>
+  <si>
+    <t>7.67,5.61,0.71,1.76,0.41,0.0,12.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.17,0.09,0.09,0.09,0.0,0.0,0.0,0.0,15.8,9.83,5.42,1.83,3.52,0.52,0.0,12.28,0.0,0.05,0.83,0,0,0.0,0.0,0.0,0.22,0.07,0.31,0.1,0.1,0.12,0.02,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>59.0,5.25,1.83,0.59,3.12,5.0,14.59,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.14,0.02,0.27,0.08,0.08,0.12,0.0,0.0,0.0,0.0,7.33,33.0,4.52,1.02,0.59,1.74,1.0,9.67,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.12,0.12,0.18,0.09,0.09,0.06,0.0,0.0,0.0,0.0,7.43</t>
+  </si>
+  <si>
+    <t>18.0,5.08,1.12,1.17,0.95,0.5,11.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.03,0.03,0.08,0.0,0.0,0.0,0.0,6.88,7.67,5.61,0.71,1.76,0.41,0.0,12.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.17,0.09,0.09,0.09,0.0,0.0,0.0,0.0,15.8</t>
+  </si>
+  <si>
+    <t>16.0,6.44,0.5,0.59,0.85,0.0,19.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.13,0.19,0.13,0.13,0.06,0.06,0.0,0.0,0.0,9.67,27.5,5.29,1.7,1.17,1.45,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.31,0.09,0.09,0.11,0.04,0.0,0.0,0.0,7.5</t>
+  </si>
+  <si>
+    <t>33.0,4.52,1.02,0.59,1.74,1.0,9.67,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.12,0.12,0.18,0.09,0.09,0.06,0.0,0.0,0.0,0.0,7.43,23.5,5.43,1.46,1.17,1.24,0.0,14.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.11,0.11,0.02,0.02,0.2,0.0,0.0,7.73</t>
+  </si>
+  <si>
+    <t>9.83,5.42,1.83,3.52,0.52,0.0,12.28,0.0,0.05,0.83,0,0,0.0,0.0,0.0,0.22,0.07,0.31,0.1,0.1,0.12,0.02,0.0,0.0,0.0,3.0,15.0,6.0,0.46,0.59,0.79,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,8.0</t>
+  </si>
+  <si>
+    <t>27.5,5.29,1.7,1.17,1.45,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.31,0.09,0.09,0.11,0.04,0.0,0.0,0.0,7.5,34.0,5.06,1.05,0.59,1.8,1.0,12.9,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.12,0.06,0.21,0.12,0.12,0.06,0.0,0.0,0.0,0.0,3.38</t>
+  </si>
+  <si>
+    <t>9.33,5.25,0.87,1.76,0.49,0.33,11.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.11,0.11,0.21,0.04,0.2,0.0,0.0,8.0,13.0,5.26,1.21,1.76,0.69,0.33,11.47,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.08,0.18,0.08,0.08,0.08,0.0,0.0,0.0,0.0,7.63</t>
+  </si>
+  <si>
+    <t>14.0,4.86,0.43,0.59,0.74,0.0,8.97,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.21,0.36,0.0,0.0,0.0,0.0,0.0,0.0,0.0,11.33,26.0,5.42,0.81,0.59,1.37,1.0,14.06,0.0,0.04,1.0,2,0,0.0,0.0,0.0,0.08,0.08,0.19,0.12,0.12,0.04,0.0,0.0,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>23.5,5.43,1.46,1.17,1.24,0.0,14.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.11,0.11,0.02,0.02,0.2,0.0,0.0,7.73,10.5,5.81,0.65,1.17,0.56,0.5,13.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.33,0.05,0.05,0.19,0.0,0.0,0.0,0.0,16.0</t>
+  </si>
+  <si>
+    <t>18.5,5.32,1.15,1.17,0.98,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.11,0.22,0.03,0.03,0.08,0.03,0.0,0.0,0.0,11.09,24.0,5.71,0.74,0.59,1.27,1.0,15.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.13,0.25,0.0,0.0,0.04,0.0,0.0,0.0,0.0,8.17</t>
+  </si>
+  <si>
+    <t>30.0,5.47,0.93,0.59,1.59,0.0,13.59,0.0,0.0,5.0,0,0,0.0,0.0,0.0,0.13,0.07,0.2,0.07,0.07,0.1,0.07,0.0,0.0,0.0,8.5,14.0,5.64,0.43,0.59,0.74,1.0,14.01,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.29,0.07,0.07,0.14,0.0,0.0,0.0,0.0,20.0</t>
+  </si>
+  <si>
+    <t>16.0,6.44,0.5,0.59,0.85,0.0,19.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.13,0.19,0.13,0.13,0.06,0.06,0.0,0.0,0.0,9.67,34.0,5.06,1.05,0.59,1.8,1.0,12.9,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.12,0.06,0.21,0.12,0.12,0.06,0.0,0.0,0.0,0.0,3.38</t>
+  </si>
+  <si>
+    <t>7.67,5.61,0.71,1.76,0.41,0.0,12.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.17,0.09,0.09,0.09,0.0,0.0,0.0,0.0,15.8,15.0,5.07,0.46,0.59,0.79,1.0,9.18,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.0,0.27,0.0,0.0,0.27,0.0,0.0,0.0,0.0,6.75</t>
+  </si>
+  <si>
+    <t>23.0,5.3,0.71,0.59,1.22,0.0,13.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.3,0.09,0.09,0.09,0.04,0.0,0.0,0.0,14.5,7.0,5.93,0.43,1.17,0.37,0.0,13.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.0,0.0,0.14,0.07,0.0,0.0,0.0,8.5</t>
+  </si>
+  <si>
+    <t>34.0,5.06,1.05,0.59,1.8,1.0,12.9,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.12,0.06,0.21,0.12,0.12,0.06,0.0,0.0,0.0,0.0,3.38,15.0,6.0,0.46,0.59,0.79,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,8.0</t>
+  </si>
+  <si>
+    <t>23.0,5.3,0.71,0.59,1.22,0.0,13.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.3,0.09,0.09,0.09,0.04,0.0,0.0,0.0,14.5,16.0,6.06,0.99,1.17,0.85,0.5,17.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.19,0.09,0.09,0.19,0.03,0.0,0.0,0.0,11.29</t>
+  </si>
+  <si>
+    <t>15.17,5.71,2.82,3.52,0.8,1.0,15.14,0.0,0.02,0.83,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.12,0.12,0.15,0.03,0.4,0.5,0.5,5.8,23.5,5.43,1.46,1.17,1.24,0.0,14.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.11,0.11,0.02,0.02,0.2,0.0,0.0,7.73</t>
   </si>
   <si>
     <t>de</t>
@@ -1167,52 +1167,52 @@
     <t>into an adult. There are children who were spanked growing up who grow up to be terrible adults, and children who were not spanked growing up who become good or even great adults.</t>
   </si>
   <si>
-    <t>122,0.0,13.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,147,0.33,11.84,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>197,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0,123,1.0,13.85,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.14,0.0</t>
-  </si>
-  <si>
-    <t>137,1.0,15.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,115,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>90,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.15,0.0,0.0,147,0.33,11.84,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>68,0.0,8.97,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,194,0.5,17.26,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>122,0.0,13.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,149,1.0,9.67,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>103,0.0,19.86,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,111,1.0,12.75,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>291,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0,90,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>172,1.0,12.9,0.0,0.0,1.0,0.0,0.03,0.0,0.05,0.1,0.15,0.0,0.0,129,0.0,12.04,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>320,0.0,12.28,0.0,0.05,0.83,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,122,0.0,13.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>172,1.0,12.9,0.0,0.0,1.0,0.0,0.03,0.0,0.05,0.1,0.15,0.0,0.0,205,0.33,11.47,0.0,0.0,1.0,0.0,0.03,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>76,1.0,9.18,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,172,1.0,12.9,0.0,0.0,1.0,0.0,0.03,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>320,0.0,12.28,0.0,0.05,0.83,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,227,0.33,18.16,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>135,1.0,16.15,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,310,5.0,14.59,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>123,1.0,13.85,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.14,0.0,137,1.0,15.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>520,1.0,15.14,0.0,0.02,0.83,0.0,0.0,0.0,0.2,0.5,0.45,0.14,0.5,446,0.25,16.76,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.14,0.0</t>
+    <t>23.0,5.3,0.71,0.59,1.22,0.0,13.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.3,0.09,0.09,0.09,0.04,0.0,0.0,0.0,14.5,9.33,5.25,0.87,1.76,0.49,0.33,11.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.11,0.11,0.21,0.04,0.2,0.0,0.0,8.0</t>
+  </si>
+  <si>
+    <t>18.5,5.32,1.15,1.17,0.98,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.11,0.22,0.03,0.03,0.08,0.03,0.0,0.0,0.0,11.09,11.0,5.59,0.68,1.17,0.58,1.0,13.85,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.27,0.09,0.09,0.23,0.0,0.0,0.0,0.0,6.43</t>
+  </si>
+  <si>
+    <t>24.0,5.71,0.74,0.59,1.27,1.0,15.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.13,0.25,0.0,0.0,0.04,0.0,0.0,0.0,0.0,8.17,20.0,5.75,0.62,0.59,1.06,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.0,0.4,0.05,0.05,0.05,0.0,0.0,0.0,0.0,23.33</t>
+  </si>
+  <si>
+    <t>15.0,6.0,0.46,0.59,0.79,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,8.0,9.33,5.25,0.87,1.76,0.49,0.33,11.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.11,0.11,0.21,0.04,0.2,0.0,0.0,8.0</t>
+  </si>
+  <si>
+    <t>14.0,4.86,0.43,0.59,0.74,0.0,8.97,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.21,0.36,0.0,0.0,0.0,0.0,0.0,0.0,0.0,11.33,16.0,6.06,0.99,1.17,0.85,0.5,17.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.19,0.09,0.09,0.19,0.03,0.0,0.0,0.0,11.29</t>
+  </si>
+  <si>
+    <t>23.0,5.3,0.71,0.59,1.22,0.0,13.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.3,0.09,0.09,0.09,0.04,0.0,0.0,0.0,14.5,33.0,4.52,1.02,0.59,1.74,1.0,9.67,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.12,0.12,0.18,0.09,0.09,0.06,0.0,0.0,0.0,0.0,7.43</t>
+  </si>
+  <si>
+    <t>16.0,6.44,0.5,0.59,0.85,0.0,19.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.13,0.19,0.13,0.13,0.06,0.06,0.0,0.0,0.0,9.67,21.0,5.29,0.65,0.59,1.11,1.0,12.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.38,0.05,0.05,0.14,0.0,0.0,0.0,0.0,11.43</t>
+  </si>
+  <si>
+    <t>27.5,5.29,1.7,1.17,1.45,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.31,0.09,0.09,0.11,0.04,0.0,0.0,0.0,7.5,15.0,6.0,0.46,0.59,0.79,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,8.0</t>
+  </si>
+  <si>
+    <t>34.0,5.06,1.05,0.59,1.8,1.0,12.9,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.12,0.06,0.21,0.12,0.12,0.06,0.0,0.0,0.0,0.0,3.38,7.67,5.61,0.71,1.76,0.41,0.0,12.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.17,0.09,0.09,0.09,0.0,0.0,0.0,0.0,15.8</t>
+  </si>
+  <si>
+    <t>9.83,5.42,1.83,3.52,0.52,0.0,12.28,0.0,0.05,0.83,0,0,0.0,0.0,0.0,0.22,0.07,0.31,0.1,0.1,0.12,0.02,0.0,0.0,0.0,3.0,23.0,5.3,0.71,0.59,1.22,0.0,13.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.3,0.09,0.09,0.09,0.04,0.0,0.0,0.0,14.5</t>
+  </si>
+  <si>
+    <t>34.0,5.06,1.05,0.59,1.8,1.0,12.9,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.12,0.06,0.21,0.12,0.12,0.06,0.0,0.0,0.0,0.0,3.38,13.0,5.26,1.21,1.76,0.69,0.33,11.47,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.08,0.18,0.08,0.08,0.08,0.0,0.0,0.0,0.0,7.63</t>
+  </si>
+  <si>
+    <t>15.0,5.07,0.46,0.59,0.79,1.0,9.18,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.0,0.27,0.0,0.0,0.27,0.0,0.0,0.0,0.0,6.75,34.0,5.06,1.05,0.59,1.8,1.0,12.9,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.12,0.06,0.21,0.12,0.12,0.06,0.0,0.0,0.0,0.0,3.38</t>
+  </si>
+  <si>
+    <t>9.83,5.42,1.83,3.52,0.52,0.0,12.28,0.0,0.05,0.83,0,0,0.0,0.0,0.0,0.22,0.07,0.31,0.1,0.1,0.12,0.02,0.0,0.0,0.0,3.0,12.0,6.31,1.12,1.76,0.63,0.33,18.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.0,0.0,8.36</t>
+  </si>
+  <si>
+    <t>23.0,5.87,0.71,0.59,1.22,1.0,16.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.0,0.35,0.13,0.13,0.13,0.04,0.0,0.0,0.0,3.25,59.0,5.25,1.83,0.59,3.12,5.0,14.59,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.14,0.02,0.27,0.08,0.08,0.12,0.0,0.0,0.0,0.0,7.33</t>
+  </si>
+  <si>
+    <t>11.0,5.59,0.68,1.17,0.58,1.0,13.85,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.27,0.09,0.09,0.23,0.0,0.0,0.0,0.0,6.43,24.0,5.71,0.74,0.59,1.27,1.0,15.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.13,0.25,0.0,0.0,0.04,0.0,0.0,0.0,0.0,8.17</t>
+  </si>
+  <si>
+    <t>15.17,5.71,2.82,3.52,0.8,1.0,15.14,0.0,0.02,0.83,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.12,0.12,0.15,0.03,0.4,0.5,0.5,5.8,19.0,5.87,2.36,2.34,1.0,0.25,16.76,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.07,0.07,0.13,0.04,0.0,0.0,0.0,6.82</t>
   </si>
   <si>
     <t>sp</t>
@@ -1227,52 +1227,52 @@
     <t>to discipline their child. The child will obey if they have a strong healthy relationship with a parent, if they have gained their respect. The parents should have a friendly relationship with their child and the child will soon respect them and agree to what their parents decide although they may not like it. They will learn that the parents know whats best for them.</t>
   </si>
   <si>
-    <t>291,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0,135,1.0,16.15,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>68,0.0,8.97,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,83,0.0,13.99,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>214,0.0,13.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,135,1.0,16.15,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>79,1.0,14.01,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,205,0.33,11.47,0.0,0.0,1.0,0.0,0.03,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>205,0.33,11.47,0.0,0.0,1.0,0.0,0.03,0.0,0.1,0.15,0.15,0.0,0.0,122,0.5,13.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>310,5.0,14.59,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,111,1.0,12.75,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>194,0.5,17.26,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,123,1.0,13.85,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.14,0.0</t>
-  </si>
-  <si>
-    <t>164,0.0,13.59,0.0,0.0,5.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0,214,0.0,13.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>83,0.0,13.99,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,147,1.0,13.8,0.0,0.18,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>205,0.33,11.47,0.0,0.0,1.0,0.0,0.03,0.0,0.1,0.15,0.15,0.0,0.0,131,0.0,14.12,0.0,0.04,3.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>131,0.0,14.12,0.0,0.04,3.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,194,0.5,17.26,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>310,5.0,14.59,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,164,0.0,13.59,0.0,0.0,5.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>446,0.25,16.76,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.14,0.0,129,0.0,12.04,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>103,0.0,19.86,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,141,1.0,14.06,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>83,0.0,13.99,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,147,0.33,11.84,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>197,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0,446,0.25,16.76,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.14,0.0</t>
+    <t>27.5,5.29,1.7,1.17,1.45,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.31,0.09,0.09,0.11,0.04,0.0,0.0,0.0,7.5,23.0,5.87,0.71,0.59,1.22,1.0,16.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.0,0.35,0.13,0.13,0.13,0.04,0.0,0.0,0.0,3.25</t>
+  </si>
+  <si>
+    <t>14.0,4.86,0.43,0.59,0.74,0.0,8.97,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.21,0.36,0.0,0.0,0.0,0.0,0.0,0.0,0.0,11.33,7.0,5.93,0.43,1.17,0.37,0.0,13.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.0,0.0,0.14,0.07,0.0,0.0,0.0,8.5</t>
+  </si>
+  <si>
+    <t>12.67,5.63,1.18,1.76,0.67,0.0,13.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.03,0.03,0.05,0.03,0.0,0.0,0.0,11.5,23.0,5.87,0.71,0.59,1.22,1.0,16.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.0,0.35,0.13,0.13,0.13,0.04,0.0,0.0,0.0,3.25</t>
+  </si>
+  <si>
+    <t>14.0,5.64,0.43,0.59,0.74,1.0,14.01,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.29,0.07,0.07,0.14,0.0,0.0,0.0,0.0,20.0,13.0,5.26,1.21,1.76,0.69,0.33,11.47,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.08,0.18,0.08,0.08,0.08,0.0,0.0,0.0,0.0,7.63</t>
+  </si>
+  <si>
+    <t>13.0,5.26,1.21,1.76,0.69,0.33,11.47,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.08,0.18,0.08,0.08,0.08,0.0,0.0,0.0,0.0,7.63,10.5,5.81,0.65,1.17,0.56,0.5,13.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.33,0.05,0.05,0.19,0.0,0.0,0.0,0.0,16.0</t>
+  </si>
+  <si>
+    <t>59.0,5.25,1.83,0.59,3.12,5.0,14.59,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.14,0.02,0.27,0.08,0.08,0.12,0.0,0.0,0.0,0.0,7.33,21.0,5.29,0.65,0.59,1.11,1.0,12.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.38,0.05,0.05,0.14,0.0,0.0,0.0,0.0,11.43</t>
+  </si>
+  <si>
+    <t>16.0,6.06,0.99,1.17,0.85,0.5,17.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.19,0.09,0.09,0.19,0.03,0.0,0.0,0.0,11.29,11.0,5.59,0.68,1.17,0.58,1.0,13.85,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.27,0.09,0.09,0.23,0.0,0.0,0.0,0.0,6.43</t>
+  </si>
+  <si>
+    <t>30.0,5.47,0.93,0.59,1.59,0.0,13.59,0.0,0.0,5.0,0,0,0.0,0.0,0.0,0.13,0.07,0.2,0.07,0.07,0.1,0.07,0.0,0.0,0.0,8.5,12.67,5.63,1.18,1.76,0.67,0.0,13.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.03,0.03,0.05,0.03,0.0,0.0,0.0,11.5</t>
+  </si>
+  <si>
+    <t>7.0,5.93,0.43,1.17,0.37,0.0,13.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.0,0.0,0.14,0.07,0.0,0.0,0.0,8.5,28.0,5.25,0.87,0.59,1.48,1.0,13.8,0.0,0.18,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,12.8</t>
+  </si>
+  <si>
+    <t>13.0,5.26,1.21,1.76,0.69,0.33,11.47,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.08,0.18,0.08,0.08,0.08,0.0,0.0,0.0,0.0,7.63,23.0,5.7,0.71,0.59,1.22,0.0,14.12,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.17,0.04,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,7.71</t>
+  </si>
+  <si>
+    <t>23.0,5.7,0.71,0.59,1.22,0.0,14.12,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.17,0.04,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,7.71,16.0,6.06,0.99,1.17,0.85,0.5,17.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.19,0.09,0.09,0.19,0.03,0.0,0.0,0.0,11.29</t>
+  </si>
+  <si>
+    <t>59.0,5.25,1.83,0.59,3.12,5.0,14.59,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.14,0.02,0.27,0.08,0.08,0.12,0.0,0.0,0.0,0.0,7.33,30.0,5.47,0.93,0.59,1.59,0.0,13.59,0.0,0.0,5.0,0,0,0.0,0.0,0.0,0.13,0.07,0.2,0.07,0.07,0.1,0.07,0.0,0.0,0.0,8.5</t>
+  </si>
+  <si>
+    <t>19.0,5.87,2.36,2.34,1.0,0.25,16.76,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.07,0.07,0.13,0.04,0.0,0.0,0.0,6.82,7.67,5.61,0.71,1.76,0.41,0.0,12.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.17,0.09,0.09,0.09,0.0,0.0,0.0,0.0,15.8</t>
+  </si>
+  <si>
+    <t>16.0,6.44,0.5,0.59,0.85,0.0,19.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.13,0.19,0.13,0.13,0.06,0.06,0.0,0.0,0.0,9.67,26.0,5.42,0.81,0.59,1.37,1.0,14.06,0.0,0.04,1.0,2,0,0.0,0.0,0.0,0.08,0.08,0.19,0.12,0.12,0.04,0.0,0.0,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>7.0,5.93,0.43,1.17,0.37,0.0,13.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.0,0.0,0.14,0.07,0.0,0.0,0.0,8.5,9.33,5.25,0.87,1.76,0.49,0.33,11.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.11,0.11,0.21,0.04,0.2,0.0,0.0,8.0</t>
+  </si>
+  <si>
+    <t>18.5,5.32,1.15,1.17,0.98,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.11,0.22,0.03,0.03,0.08,0.03,0.0,0.0,0.0,11.09,19.0,5.87,2.36,2.34,1.0,0.25,16.76,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.07,0.07,0.13,0.04,0.0,0.0,0.0,6.82</t>
   </si>
   <si>
     <t>ill</t>
@@ -1284,109 +1284,109 @@
     <t>that the parents know whats best for them.</t>
   </si>
   <si>
-    <t>79,1.0,14.01,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,90,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>115,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,122,0.0,13.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>103,0.0,19.86,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,344,1.5,15.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.3,0.29,0.5</t>
-  </si>
-  <si>
-    <t>214,0.0,13.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,205,0.33,11.47,0.0,0.0,1.0,0.0,0.03,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>115,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,183,0.5,11.14,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>115,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,197,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>214,0.0,13.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,291,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>111,1.0,12.75,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,76,1.0,9.18,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>183,0.5,11.14,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.25,0.0,0.0,68,0.0,8.97,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>320,0.0,12.28,0.0,0.05,0.83,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,149,1.0,9.67,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>214,0.0,13.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,129,0.0,12.04,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>68,0.0,8.97,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,137,1.0,15.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>123,1.0,13.85,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.14,0.0,122,0.0,13.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>122,0.5,13.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,129,0.0,12.04,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>131,0.0,14.12,0.0,0.04,3.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,183,0.5,11.14,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>149,1.0,9.67,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,76,1.0,9.18,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>214,0.0,13.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,446,0.25,16.76,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.14,0.0</t>
-  </si>
-  <si>
-    <t>183,0.5,11.14,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.25,0.0,0.0,164,0.0,13.59,0.0,0.0,5.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>194,0.5,17.26,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,291,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>255,0.0,14.34,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.14,0.0,194,0.5,17.26,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,1.0,13.8,0.0,0.18,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,172,1.0,12.9,0.0,0.0,1.0,0.0,0.03,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>122,0.5,13.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,172,1.0,12.9,0.0,0.0,1.0,0.0,0.03,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>123,1.0,13.85,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.14,0.0,320,0.0,12.28,0.0,0.05,0.83,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>122,0.0,13.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,255,0.0,14.34,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.14,0.0</t>
-  </si>
-  <si>
-    <t>68,0.0,8.97,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,310,5.0,14.59,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>111,1.0,12.75,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,147,0.33,11.84,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>90,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.15,0.0,0.0,227,0.33,18.16,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>122,0.0,13.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,103,0.0,19.86,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>164,0.0,13.59,0.0,0.0,5.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0,194,0.5,17.26,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>291,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0,122,0.0,13.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>205,0.33,11.47,0.0,0.0,1.0,0.0,0.03,0.0,0.1,0.15,0.15,0.0,0.0,122,0.0,13.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>149,1.0,9.67,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,291,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,0.33,11.84,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.15,0.0,0.0,135,1.0,16.15,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>197,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0,310,5.0,14.59,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>111,1.0,12.75,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,520,1.0,15.14,0.0,0.02,0.83,0.0,0.0,0.0,0.2,0.5,0.45,0.14,0.5</t>
+    <t>14.0,5.64,0.43,0.59,0.74,1.0,14.01,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.29,0.07,0.07,0.14,0.0,0.0,0.0,0.0,20.0,15.0,6.0,0.46,0.59,0.79,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,8.0</t>
+  </si>
+  <si>
+    <t>20.0,5.75,0.62,0.59,1.06,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.0,0.4,0.05,0.05,0.05,0.0,0.0,0.0,0.0,23.33,23.0,5.3,0.71,0.59,1.22,0.0,13.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.3,0.09,0.09,0.09,0.04,0.0,0.0,0.0,14.5</t>
+  </si>
+  <si>
+    <t>16.0,6.44,0.5,0.59,0.85,0.0,19.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.13,0.19,0.13,0.13,0.06,0.06,0.0,0.0,0.0,9.67,30.5,5.64,1.89,1.17,1.61,1.5,15.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.03,0.03,0.07,0.03,0.2,0.5,0.5,7.0</t>
+  </si>
+  <si>
+    <t>12.67,5.63,1.18,1.76,0.67,0.0,13.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.03,0.03,0.05,0.03,0.0,0.0,0.0,11.5,13.0,5.26,1.21,1.76,0.69,0.33,11.47,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.08,0.18,0.08,0.08,0.08,0.0,0.0,0.0,0.0,7.63</t>
+  </si>
+  <si>
+    <t>20.0,5.75,0.62,0.59,1.06,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.0,0.4,0.05,0.05,0.05,0.0,0.0,0.0,0.0,23.33,18.0,5.08,1.12,1.17,0.95,0.5,11.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.03,0.03,0.08,0.0,0.0,0.0,0.0,6.88</t>
+  </si>
+  <si>
+    <t>20.0,5.75,0.62,0.59,1.06,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.0,0.4,0.05,0.05,0.05,0.0,0.0,0.0,0.0,23.33,18.5,5.32,1.15,1.17,0.98,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.11,0.22,0.03,0.03,0.08,0.03,0.0,0.0,0.0,11.09</t>
+  </si>
+  <si>
+    <t>12.67,5.63,1.18,1.76,0.67,0.0,13.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.03,0.03,0.05,0.03,0.0,0.0,0.0,11.5,27.5,5.29,1.7,1.17,1.45,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.31,0.09,0.09,0.11,0.04,0.0,0.0,0.0,7.5</t>
+  </si>
+  <si>
+    <t>21.0,5.29,0.65,0.59,1.11,1.0,12.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.38,0.05,0.05,0.14,0.0,0.0,0.0,0.0,11.43,15.0,5.07,0.46,0.59,0.79,1.0,9.18,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.0,0.27,0.0,0.0,0.27,0.0,0.0,0.0,0.0,6.75</t>
+  </si>
+  <si>
+    <t>18.0,5.08,1.12,1.17,0.95,0.5,11.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.03,0.03,0.08,0.0,0.0,0.0,0.0,6.88,14.0,4.86,0.43,0.59,0.74,0.0,8.97,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.21,0.36,0.0,0.0,0.0,0.0,0.0,0.0,0.0,11.33</t>
+  </si>
+  <si>
+    <t>9.83,5.42,1.83,3.52,0.52,0.0,12.28,0.0,0.05,0.83,0,0,0.0,0.0,0.0,0.22,0.07,0.31,0.1,0.1,0.12,0.02,0.0,0.0,0.0,3.0,33.0,4.52,1.02,0.59,1.74,1.0,9.67,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.12,0.12,0.18,0.09,0.09,0.06,0.0,0.0,0.0,0.0,7.43</t>
+  </si>
+  <si>
+    <t>12.67,5.63,1.18,1.76,0.67,0.0,13.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.03,0.03,0.05,0.03,0.0,0.0,0.0,11.5,7.67,5.61,0.71,1.76,0.41,0.0,12.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.17,0.09,0.09,0.09,0.0,0.0,0.0,0.0,15.8</t>
+  </si>
+  <si>
+    <t>14.0,4.86,0.43,0.59,0.74,0.0,8.97,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.21,0.36,0.0,0.0,0.0,0.0,0.0,0.0,0.0,11.33,24.0,5.71,0.74,0.59,1.27,1.0,15.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.13,0.25,0.0,0.0,0.04,0.0,0.0,0.0,0.0,8.17</t>
+  </si>
+  <si>
+    <t>11.0,5.59,0.68,1.17,0.58,1.0,13.85,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.27,0.09,0.09,0.23,0.0,0.0,0.0,0.0,6.43,23.0,5.3,0.71,0.59,1.22,0.0,13.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.3,0.09,0.09,0.09,0.04,0.0,0.0,0.0,14.5</t>
+  </si>
+  <si>
+    <t>10.5,5.81,0.65,1.17,0.56,0.5,13.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.33,0.05,0.05,0.19,0.0,0.0,0.0,0.0,16.0,7.67,5.61,0.71,1.76,0.41,0.0,12.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.17,0.09,0.09,0.09,0.0,0.0,0.0,0.0,15.8</t>
+  </si>
+  <si>
+    <t>23.0,5.7,0.71,0.59,1.22,0.0,14.12,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.17,0.04,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,7.71,18.0,5.08,1.12,1.17,0.95,0.5,11.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.03,0.03,0.08,0.0,0.0,0.0,0.0,6.88</t>
+  </si>
+  <si>
+    <t>33.0,4.52,1.02,0.59,1.74,1.0,9.67,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.12,0.12,0.18,0.09,0.09,0.06,0.0,0.0,0.0,0.0,7.43,15.0,5.07,0.46,0.59,0.79,1.0,9.18,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.0,0.27,0.0,0.0,0.27,0.0,0.0,0.0,0.0,6.75</t>
+  </si>
+  <si>
+    <t>12.67,5.63,1.18,1.76,0.67,0.0,13.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.03,0.03,0.05,0.03,0.0,0.0,0.0,11.5,19.0,5.87,2.36,2.34,1.0,0.25,16.76,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.07,0.07,0.13,0.04,0.0,0.0,0.0,6.82</t>
+  </si>
+  <si>
+    <t>18.0,5.08,1.12,1.17,0.95,0.5,11.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.03,0.03,0.08,0.0,0.0,0.0,0.0,6.88,30.0,5.47,0.93,0.59,1.59,0.0,13.59,0.0,0.0,5.0,0,0,0.0,0.0,0.0,0.13,0.07,0.2,0.07,0.07,0.1,0.07,0.0,0.0,0.0,8.5</t>
+  </si>
+  <si>
+    <t>16.0,6.06,0.99,1.17,0.85,0.5,17.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.19,0.09,0.09,0.19,0.03,0.0,0.0,0.0,11.29,27.5,5.29,1.7,1.17,1.45,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.31,0.09,0.09,0.11,0.04,0.0,0.0,0.0,7.5</t>
+  </si>
+  <si>
+    <t>23.5,5.43,1.46,1.17,1.24,0.0,14.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.11,0.11,0.02,0.02,0.2,0.0,0.0,7.73,16.0,6.06,0.99,1.17,0.85,0.5,17.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.19,0.09,0.09,0.19,0.03,0.0,0.0,0.0,11.29</t>
+  </si>
+  <si>
+    <t>28.0,5.25,0.87,0.59,1.48,1.0,13.8,0.0,0.18,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,12.8,34.0,5.06,1.05,0.59,1.8,1.0,12.9,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.12,0.06,0.21,0.12,0.12,0.06,0.0,0.0,0.0,0.0,3.38</t>
+  </si>
+  <si>
+    <t>10.5,5.81,0.65,1.17,0.56,0.5,13.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.33,0.05,0.05,0.19,0.0,0.0,0.0,0.0,16.0,34.0,5.06,1.05,0.59,1.8,1.0,12.9,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.12,0.06,0.21,0.12,0.12,0.06,0.0,0.0,0.0,0.0,3.38</t>
+  </si>
+  <si>
+    <t>11.0,5.59,0.68,1.17,0.58,1.0,13.85,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.27,0.09,0.09,0.23,0.0,0.0,0.0,0.0,6.43,9.83,5.42,1.83,3.52,0.52,0.0,12.28,0.0,0.05,0.83,0,0,0.0,0.0,0.0,0.22,0.07,0.31,0.1,0.1,0.12,0.02,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>23.0,5.3,0.71,0.59,1.22,0.0,13.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.3,0.09,0.09,0.09,0.04,0.0,0.0,0.0,14.5,23.5,5.43,1.46,1.17,1.24,0.0,14.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.11,0.11,0.02,0.02,0.2,0.0,0.0,7.73</t>
+  </si>
+  <si>
+    <t>14.0,4.86,0.43,0.59,0.74,0.0,8.97,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.21,0.36,0.0,0.0,0.0,0.0,0.0,0.0,0.0,11.33,59.0,5.25,1.83,0.59,3.12,5.0,14.59,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.14,0.02,0.27,0.08,0.08,0.12,0.0,0.0,0.0,0.0,7.33</t>
+  </si>
+  <si>
+    <t>21.0,5.29,0.65,0.59,1.11,1.0,12.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.38,0.05,0.05,0.14,0.0,0.0,0.0,0.0,11.43,9.33,5.25,0.87,1.76,0.49,0.33,11.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.11,0.11,0.21,0.04,0.2,0.0,0.0,8.0</t>
+  </si>
+  <si>
+    <t>15.0,6.0,0.46,0.59,0.79,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,8.0,12.0,6.31,1.12,1.76,0.63,0.33,18.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.0,0.0,8.36</t>
+  </si>
+  <si>
+    <t>23.0,5.3,0.71,0.59,1.22,0.0,13.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.3,0.09,0.09,0.09,0.04,0.0,0.0,0.0,14.5,16.0,6.44,0.5,0.59,0.85,0.0,19.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.13,0.19,0.13,0.13,0.06,0.06,0.0,0.0,0.0,9.67</t>
+  </si>
+  <si>
+    <t>30.0,5.47,0.93,0.59,1.59,0.0,13.59,0.0,0.0,5.0,0,0,0.0,0.0,0.0,0.13,0.07,0.2,0.07,0.07,0.1,0.07,0.0,0.0,0.0,8.5,16.0,6.06,0.99,1.17,0.85,0.5,17.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.19,0.09,0.09,0.19,0.03,0.0,0.0,0.0,11.29</t>
+  </si>
+  <si>
+    <t>27.5,5.29,1.7,1.17,1.45,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.31,0.09,0.09,0.11,0.04,0.0,0.0,0.0,7.5,23.0,5.3,0.71,0.59,1.22,0.0,13.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.3,0.09,0.09,0.09,0.04,0.0,0.0,0.0,14.5</t>
+  </si>
+  <si>
+    <t>13.0,5.26,1.21,1.76,0.69,0.33,11.47,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.08,0.18,0.08,0.08,0.08,0.0,0.0,0.0,0.0,7.63,23.0,5.3,0.71,0.59,1.22,0.0,13.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.3,0.09,0.09,0.09,0.04,0.0,0.0,0.0,14.5</t>
+  </si>
+  <si>
+    <t>33.0,4.52,1.02,0.59,1.74,1.0,9.67,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.12,0.12,0.18,0.09,0.09,0.06,0.0,0.0,0.0,0.0,7.43,27.5,5.29,1.7,1.17,1.45,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.31,0.09,0.09,0.11,0.04,0.0,0.0,0.0,7.5</t>
+  </si>
+  <si>
+    <t>9.33,5.25,0.87,1.76,0.49,0.33,11.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.11,0.11,0.21,0.04,0.2,0.0,0.0,8.0,23.0,5.87,0.71,0.59,1.22,1.0,16.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.0,0.35,0.13,0.13,0.13,0.04,0.0,0.0,0.0,3.25</t>
+  </si>
+  <si>
+    <t>18.5,5.32,1.15,1.17,0.98,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.11,0.22,0.03,0.03,0.08,0.03,0.0,0.0,0.0,11.09,59.0,5.25,1.83,0.59,3.12,5.0,14.59,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.14,0.02,0.27,0.08,0.08,0.12,0.0,0.0,0.0,0.0,7.33</t>
+  </si>
+  <si>
+    <t>21.0,5.29,0.65,0.59,1.11,1.0,12.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.38,0.05,0.05,0.14,0.0,0.0,0.0,0.0,11.43,15.17,5.71,2.82,3.52,0.8,1.0,15.14,0.0,0.02,0.83,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.12,0.12,0.15,0.03,0.4,0.5,0.5,5.8</t>
   </si>
   <si>
     <t>are</t>
@@ -1395,22 +1395,22 @@
     <t>their parents would hit them</t>
   </si>
   <si>
-    <t>135,1.0,16.15,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,111,1.0,12.75,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>227,0.33,18.16,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.35,0.0,0.0,183,0.5,11.14,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>194,0.5,17.26,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,129,0.0,12.04,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>214,0.0,13.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,122,0.0,13.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>68,0.0,8.97,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,135,1.0,16.15,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>310,5.0,14.59,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,291,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0</t>
+    <t>23.0,5.87,0.71,0.59,1.22,1.0,16.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.0,0.35,0.13,0.13,0.13,0.04,0.0,0.0,0.0,3.25,21.0,5.29,0.65,0.59,1.11,1.0,12.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.38,0.05,0.05,0.14,0.0,0.0,0.0,0.0,11.43</t>
+  </si>
+  <si>
+    <t>12.0,6.31,1.12,1.76,0.63,0.33,18.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.0,0.0,8.36,18.0,5.08,1.12,1.17,0.95,0.5,11.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.03,0.03,0.08,0.0,0.0,0.0,0.0,6.88</t>
+  </si>
+  <si>
+    <t>16.0,6.06,0.99,1.17,0.85,0.5,17.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.19,0.09,0.09,0.19,0.03,0.0,0.0,0.0,11.29,7.67,5.61,0.71,1.76,0.41,0.0,12.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.17,0.09,0.09,0.09,0.0,0.0,0.0,0.0,15.8</t>
+  </si>
+  <si>
+    <t>12.67,5.63,1.18,1.76,0.67,0.0,13.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.03,0.03,0.05,0.03,0.0,0.0,0.0,11.5,23.0,5.3,0.71,0.59,1.22,0.0,13.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.3,0.09,0.09,0.09,0.04,0.0,0.0,0.0,14.5</t>
+  </si>
+  <si>
+    <t>14.0,4.86,0.43,0.59,0.74,0.0,8.97,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.21,0.36,0.0,0.0,0.0,0.0,0.0,0.0,0.0,11.33,23.0,5.87,0.71,0.59,1.22,1.0,16.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.0,0.35,0.13,0.13,0.13,0.04,0.0,0.0,0.0,3.25</t>
+  </si>
+  <si>
+    <t>59.0,5.25,1.83,0.59,3.12,5.0,14.59,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.14,0.02,0.27,0.08,0.08,0.12,0.0,0.0,0.0,0.0,7.33,27.5,5.29,1.7,1.17,1.45,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.31,0.09,0.09,0.11,0.04,0.0,0.0,0.0,7.5</t>
   </si>
   <si>
     <t>arn</t>
@@ -1419,169 +1419,169 @@
     <t>m.</t>
   </si>
   <si>
-    <t>164,0.0,13.59,0.0,0.0,5.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0,103,0.0,19.86,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>344,1.5,15.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.3,0.29,0.5,172,1.0,12.9,0.0,0.0,1.0,0.0,0.03,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>344,1.5,15.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.3,0.29,0.5,194,0.5,17.26,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>122,0.0,13.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,320,0.0,12.28,0.0,0.05,0.83,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>131,0.0,14.12,0.0,0.04,3.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,291,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>76,1.0,9.18,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,68,0.0,8.97,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>164,0.0,13.59,0.0,0.0,5.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0,141,1.0,14.06,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>137,1.0,15.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,310,5.0,14.59,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>111,1.0,12.75,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,214,0.0,13.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>90,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.15,0.0,0.0,103,0.0,19.86,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>131,0.0,14.12,0.0,0.04,3.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,147,1.0,13.8,0.0,0.18,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,0.33,11.84,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.15,0.0,0.0,227,0.33,18.16,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>135,1.0,16.15,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,205,0.33,11.47,0.0,0.0,1.0,0.0,0.03,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>131,0.0,14.12,0.0,0.04,3.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,111,1.0,12.75,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>320,0.0,12.28,0.0,0.05,0.83,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,79,1.0,14.01,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>255,0.0,14.34,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.14,0.0,122,0.0,13.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>103,0.0,19.86,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,320,0.0,12.28,0.0,0.05,0.83,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>83,0.0,13.99,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,214,0.0,13.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>83,0.0,13.99,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,123,1.0,13.85,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.14,0.0</t>
-  </si>
-  <si>
-    <t>122,0.0,13.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,131,0.0,14.12,0.0,0.04,3.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,1.0,13.8,0.0,0.18,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,147,0.33,11.84,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>520,1.0,15.14,0.0,0.02,0.83,0.0,0.0,0.0,0.2,0.5,0.45,0.14,0.5,310,5.0,14.59,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
+    <t>30.0,5.47,0.93,0.59,1.59,0.0,13.59,0.0,0.0,5.0,0,0,0.0,0.0,0.0,0.13,0.07,0.2,0.07,0.07,0.1,0.07,0.0,0.0,0.0,8.5,16.0,6.44,0.5,0.59,0.85,0.0,19.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.13,0.19,0.13,0.13,0.06,0.06,0.0,0.0,0.0,9.67</t>
+  </si>
+  <si>
+    <t>30.5,5.64,1.89,1.17,1.61,1.5,15.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.03,0.03,0.07,0.03,0.2,0.5,0.5,7.0,34.0,5.06,1.05,0.59,1.8,1.0,12.9,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.12,0.06,0.21,0.12,0.12,0.06,0.0,0.0,0.0,0.0,3.38</t>
+  </si>
+  <si>
+    <t>30.5,5.64,1.89,1.17,1.61,1.5,15.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.03,0.03,0.07,0.03,0.2,0.5,0.5,7.0,16.0,6.06,0.99,1.17,0.85,0.5,17.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.19,0.09,0.09,0.19,0.03,0.0,0.0,0.0,11.29</t>
+  </si>
+  <si>
+    <t>23.0,5.3,0.71,0.59,1.22,0.0,13.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.3,0.09,0.09,0.09,0.04,0.0,0.0,0.0,14.5,9.83,5.42,1.83,3.52,0.52,0.0,12.28,0.0,0.05,0.83,0,0,0.0,0.0,0.0,0.22,0.07,0.31,0.1,0.1,0.12,0.02,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>23.0,5.7,0.71,0.59,1.22,0.0,14.12,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.17,0.04,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,7.71,27.5,5.29,1.7,1.17,1.45,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.31,0.09,0.09,0.11,0.04,0.0,0.0,0.0,7.5</t>
+  </si>
+  <si>
+    <t>15.0,5.07,0.46,0.59,0.79,1.0,9.18,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.0,0.27,0.0,0.0,0.27,0.0,0.0,0.0,0.0,6.75,14.0,4.86,0.43,0.59,0.74,0.0,8.97,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.21,0.36,0.0,0.0,0.0,0.0,0.0,0.0,0.0,11.33</t>
+  </si>
+  <si>
+    <t>30.0,5.47,0.93,0.59,1.59,0.0,13.59,0.0,0.0,5.0,0,0,0.0,0.0,0.0,0.13,0.07,0.2,0.07,0.07,0.1,0.07,0.0,0.0,0.0,8.5,26.0,5.42,0.81,0.59,1.37,1.0,14.06,0.0,0.04,1.0,2,0,0.0,0.0,0.0,0.08,0.08,0.19,0.12,0.12,0.04,0.0,0.0,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>24.0,5.71,0.74,0.59,1.27,1.0,15.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.13,0.25,0.0,0.0,0.04,0.0,0.0,0.0,0.0,8.17,59.0,5.25,1.83,0.59,3.12,5.0,14.59,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.14,0.02,0.27,0.08,0.08,0.12,0.0,0.0,0.0,0.0,7.33</t>
+  </si>
+  <si>
+    <t>21.0,5.29,0.65,0.59,1.11,1.0,12.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.38,0.05,0.05,0.14,0.0,0.0,0.0,0.0,11.43,12.67,5.63,1.18,1.76,0.67,0.0,13.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.03,0.03,0.05,0.03,0.0,0.0,0.0,11.5</t>
+  </si>
+  <si>
+    <t>15.0,6.0,0.46,0.59,0.79,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,8.0,16.0,6.44,0.5,0.59,0.85,0.0,19.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.13,0.19,0.13,0.13,0.06,0.06,0.0,0.0,0.0,9.67</t>
+  </si>
+  <si>
+    <t>23.0,5.7,0.71,0.59,1.22,0.0,14.12,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.17,0.04,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,7.71,28.0,5.25,0.87,0.59,1.48,1.0,13.8,0.0,0.18,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,12.8</t>
+  </si>
+  <si>
+    <t>9.33,5.25,0.87,1.76,0.49,0.33,11.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.11,0.11,0.21,0.04,0.2,0.0,0.0,8.0,12.0,6.31,1.12,1.76,0.63,0.33,18.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.0,0.0,8.36</t>
+  </si>
+  <si>
+    <t>23.0,5.87,0.71,0.59,1.22,1.0,16.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.0,0.35,0.13,0.13,0.13,0.04,0.0,0.0,0.0,3.25,13.0,5.26,1.21,1.76,0.69,0.33,11.47,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.08,0.18,0.08,0.08,0.08,0.0,0.0,0.0,0.0,7.63</t>
+  </si>
+  <si>
+    <t>23.0,5.7,0.71,0.59,1.22,0.0,14.12,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.17,0.04,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,7.71,21.0,5.29,0.65,0.59,1.11,1.0,12.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.38,0.05,0.05,0.14,0.0,0.0,0.0,0.0,11.43</t>
+  </si>
+  <si>
+    <t>9.83,5.42,1.83,3.52,0.52,0.0,12.28,0.0,0.05,0.83,0,0,0.0,0.0,0.0,0.22,0.07,0.31,0.1,0.1,0.12,0.02,0.0,0.0,0.0,3.0,14.0,5.64,0.43,0.59,0.74,1.0,14.01,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.29,0.07,0.07,0.14,0.0,0.0,0.0,0.0,20.0</t>
+  </si>
+  <si>
+    <t>23.5,5.43,1.46,1.17,1.24,0.0,14.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.11,0.11,0.02,0.02,0.2,0.0,0.0,7.73,23.0,5.3,0.71,0.59,1.22,0.0,13.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.3,0.09,0.09,0.09,0.04,0.0,0.0,0.0,14.5</t>
+  </si>
+  <si>
+    <t>16.0,6.44,0.5,0.59,0.85,0.0,19.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.13,0.19,0.13,0.13,0.06,0.06,0.0,0.0,0.0,9.67,9.83,5.42,1.83,3.52,0.52,0.0,12.28,0.0,0.05,0.83,0,0,0.0,0.0,0.0,0.22,0.07,0.31,0.1,0.1,0.12,0.02,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>7.0,5.93,0.43,1.17,0.37,0.0,13.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.0,0.0,0.14,0.07,0.0,0.0,0.0,8.5,12.67,5.63,1.18,1.76,0.67,0.0,13.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.03,0.03,0.05,0.03,0.0,0.0,0.0,11.5</t>
+  </si>
+  <si>
+    <t>7.0,5.93,0.43,1.17,0.37,0.0,13.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.0,0.0,0.14,0.07,0.0,0.0,0.0,8.5,11.0,5.59,0.68,1.17,0.58,1.0,13.85,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.27,0.09,0.09,0.23,0.0,0.0,0.0,0.0,6.43</t>
+  </si>
+  <si>
+    <t>23.0,5.3,0.71,0.59,1.22,0.0,13.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.3,0.09,0.09,0.09,0.04,0.0,0.0,0.0,14.5,23.0,5.7,0.71,0.59,1.22,0.0,14.12,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.17,0.04,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,7.71</t>
+  </si>
+  <si>
+    <t>28.0,5.25,0.87,0.59,1.48,1.0,13.8,0.0,0.18,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,12.8,9.33,5.25,0.87,1.76,0.49,0.33,11.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.11,0.11,0.21,0.04,0.2,0.0,0.0,8.0</t>
+  </si>
+  <si>
+    <t>15.17,5.71,2.82,3.52,0.8,1.0,15.14,0.0,0.02,0.83,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.12,0.12,0.15,0.03,0.4,0.5,0.5,5.8,59.0,5.25,1.83,0.59,3.12,5.0,14.59,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.14,0.02,0.27,0.08,0.08,0.12,0.0,0.0,0.0,0.0,7.33</t>
   </si>
   <si>
     <t>childrens are not going to be scare of what their parents are going to them and also because if you do that to your childrens are learning what their parents show them and also because that is not going to help that much the childrens</t>
   </si>
   <si>
-    <t>255,0.0,14.34,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.14,0.0,147,0.33,11.84,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>344,1.5,15.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.3,0.29,0.5,90,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>76,1.0,9.18,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,122,0.0,13.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>79,1.0,14.01,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,131,0.0,14.12,0.0,0.04,3.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>344,1.5,15.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.3,0.29,0.5,147,0.33,11.84,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>214,0.0,13.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,320,0.0,12.28,0.0,0.05,0.83,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>79,1.0,14.01,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,214,0.0,13.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>205,0.33,11.47,0.0,0.0,1.0,0.0,0.03,0.0,0.1,0.15,0.15,0.0,0.0,149,1.0,9.67,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>68,0.0,8.97,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,122,0.0,13.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>137,1.0,15.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,129,0.0,12.04,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>320,0.0,12.28,0.0,0.05,0.83,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,197,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>172,1.0,12.9,0.0,0.0,1.0,0.0,0.03,0.0,0.05,0.1,0.15,0.0,0.0,197,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>83,0.0,13.99,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,164,0.0,13.59,0.0,0.0,5.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>68,0.0,8.97,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,79,1.0,14.01,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>79,1.0,14.01,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,123,1.0,13.85,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.14,0.0</t>
-  </si>
-  <si>
-    <t>147,1.0,13.8,0.0,0.18,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,320,0.0,12.28,0.0,0.05,0.83,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>123,1.0,13.85,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.14,0.0,131,0.0,14.12,0.0,0.04,3.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,1.0,13.8,0.0,0.18,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,255,0.0,14.34,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.14,0.0</t>
-  </si>
-  <si>
-    <t>122,0.5,13.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,149,1.0,9.67,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>320,0.0,12.28,0.0,0.05,0.83,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,205,0.33,11.47,0.0,0.0,1.0,0.0,0.03,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>135,1.0,16.15,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,149,1.0,9.67,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>197,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0,135,1.0,16.15,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>172,1.0,12.9,0.0,0.0,1.0,0.0,0.03,0.0,0.05,0.1,0.15,0.0,0.0,320,0.0,12.28,0.0,0.05,0.83,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>115,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,147,1.0,13.8,0.0,0.18,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>149,1.0,9.67,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,111,1.0,12.75,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>68,0.0,8.97,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,147,0.33,11.84,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>115,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,141,1.0,14.06,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>123,1.0,13.85,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.14,0.0,68,0.0,8.97,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>172,1.0,12.9,0.0,0.0,1.0,0.0,0.03,0.0,0.05,0.1,0.15,0.0,0.0,131,0.0,14.12,0.0,0.04,3.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>227,0.33,18.16,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.35,0.0,0.0,147,1.0,13.8,0.0,0.18,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>141,1.0,14.06,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,123,1.0,13.85,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.14,0.0</t>
-  </si>
-  <si>
-    <t>520,1.0,15.14,0.0,0.02,0.83,0.0,0.0,0.0,0.2,0.5,0.45,0.14,0.5,147,0.33,11.84,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.15,0.0,0.0</t>
+    <t>23.5,5.43,1.46,1.17,1.24,0.0,14.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.11,0.11,0.02,0.02,0.2,0.0,0.0,7.73,9.33,5.25,0.87,1.76,0.49,0.33,11.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.11,0.11,0.21,0.04,0.2,0.0,0.0,8.0</t>
+  </si>
+  <si>
+    <t>30.5,5.64,1.89,1.17,1.61,1.5,15.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.03,0.03,0.07,0.03,0.2,0.5,0.5,7.0,15.0,6.0,0.46,0.59,0.79,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,8.0</t>
+  </si>
+  <si>
+    <t>15.0,5.07,0.46,0.59,0.79,1.0,9.18,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.0,0.27,0.0,0.0,0.27,0.0,0.0,0.0,0.0,6.75,23.0,5.3,0.71,0.59,1.22,0.0,13.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.3,0.09,0.09,0.09,0.04,0.0,0.0,0.0,14.5</t>
+  </si>
+  <si>
+    <t>14.0,5.64,0.43,0.59,0.74,1.0,14.01,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.29,0.07,0.07,0.14,0.0,0.0,0.0,0.0,20.0,23.0,5.7,0.71,0.59,1.22,0.0,14.12,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.17,0.04,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,7.71</t>
+  </si>
+  <si>
+    <t>30.5,5.64,1.89,1.17,1.61,1.5,15.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.03,0.03,0.07,0.03,0.2,0.5,0.5,7.0,9.33,5.25,0.87,1.76,0.49,0.33,11.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.11,0.11,0.21,0.04,0.2,0.0,0.0,8.0</t>
+  </si>
+  <si>
+    <t>12.67,5.63,1.18,1.76,0.67,0.0,13.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.03,0.03,0.05,0.03,0.0,0.0,0.0,11.5,9.83,5.42,1.83,3.52,0.52,0.0,12.28,0.0,0.05,0.83,0,0,0.0,0.0,0.0,0.22,0.07,0.31,0.1,0.1,0.12,0.02,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>14.0,5.64,0.43,0.59,0.74,1.0,14.01,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.29,0.07,0.07,0.14,0.0,0.0,0.0,0.0,20.0,12.67,5.63,1.18,1.76,0.67,0.0,13.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.03,0.03,0.05,0.03,0.0,0.0,0.0,11.5</t>
+  </si>
+  <si>
+    <t>13.0,5.26,1.21,1.76,0.69,0.33,11.47,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.08,0.18,0.08,0.08,0.08,0.0,0.0,0.0,0.0,7.63,33.0,4.52,1.02,0.59,1.74,1.0,9.67,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.12,0.12,0.18,0.09,0.09,0.06,0.0,0.0,0.0,0.0,7.43</t>
+  </si>
+  <si>
+    <t>14.0,4.86,0.43,0.59,0.74,0.0,8.97,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.21,0.36,0.0,0.0,0.0,0.0,0.0,0.0,0.0,11.33,23.0,5.3,0.71,0.59,1.22,0.0,13.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.3,0.09,0.09,0.09,0.04,0.0,0.0,0.0,14.5</t>
+  </si>
+  <si>
+    <t>24.0,5.71,0.74,0.59,1.27,1.0,15.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.13,0.25,0.0,0.0,0.04,0.0,0.0,0.0,0.0,8.17,7.67,5.61,0.71,1.76,0.41,0.0,12.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.17,0.09,0.09,0.09,0.0,0.0,0.0,0.0,15.8</t>
+  </si>
+  <si>
+    <t>9.83,5.42,1.83,3.52,0.52,0.0,12.28,0.0,0.05,0.83,0,0,0.0,0.0,0.0,0.22,0.07,0.31,0.1,0.1,0.12,0.02,0.0,0.0,0.0,3.0,18.5,5.32,1.15,1.17,0.98,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.11,0.22,0.03,0.03,0.08,0.03,0.0,0.0,0.0,11.09</t>
+  </si>
+  <si>
+    <t>34.0,5.06,1.05,0.59,1.8,1.0,12.9,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.12,0.06,0.21,0.12,0.12,0.06,0.0,0.0,0.0,0.0,3.38,18.5,5.32,1.15,1.17,0.98,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.11,0.22,0.03,0.03,0.08,0.03,0.0,0.0,0.0,11.09</t>
+  </si>
+  <si>
+    <t>7.0,5.93,0.43,1.17,0.37,0.0,13.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.0,0.0,0.14,0.07,0.0,0.0,0.0,8.5,30.0,5.47,0.93,0.59,1.59,0.0,13.59,0.0,0.0,5.0,0,0,0.0,0.0,0.0,0.13,0.07,0.2,0.07,0.07,0.1,0.07,0.0,0.0,0.0,8.5</t>
+  </si>
+  <si>
+    <t>14.0,4.86,0.43,0.59,0.74,0.0,8.97,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.21,0.36,0.0,0.0,0.0,0.0,0.0,0.0,0.0,11.33,14.0,5.64,0.43,0.59,0.74,1.0,14.01,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.29,0.07,0.07,0.14,0.0,0.0,0.0,0.0,20.0</t>
+  </si>
+  <si>
+    <t>14.0,5.64,0.43,0.59,0.74,1.0,14.01,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.29,0.07,0.07,0.14,0.0,0.0,0.0,0.0,20.0,11.0,5.59,0.68,1.17,0.58,1.0,13.85,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.27,0.09,0.09,0.23,0.0,0.0,0.0,0.0,6.43</t>
+  </si>
+  <si>
+    <t>28.0,5.25,0.87,0.59,1.48,1.0,13.8,0.0,0.18,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,12.8,9.83,5.42,1.83,3.52,0.52,0.0,12.28,0.0,0.05,0.83,0,0,0.0,0.0,0.0,0.22,0.07,0.31,0.1,0.1,0.12,0.02,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>11.0,5.59,0.68,1.17,0.58,1.0,13.85,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.27,0.09,0.09,0.23,0.0,0.0,0.0,0.0,6.43,23.0,5.7,0.71,0.59,1.22,0.0,14.12,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.17,0.04,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,7.71</t>
+  </si>
+  <si>
+    <t>28.0,5.25,0.87,0.59,1.48,1.0,13.8,0.0,0.18,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,12.8,23.5,5.43,1.46,1.17,1.24,0.0,14.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.11,0.11,0.02,0.02,0.2,0.0,0.0,7.73</t>
+  </si>
+  <si>
+    <t>10.5,5.81,0.65,1.17,0.56,0.5,13.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.33,0.05,0.05,0.19,0.0,0.0,0.0,0.0,16.0,33.0,4.52,1.02,0.59,1.74,1.0,9.67,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.12,0.12,0.18,0.09,0.09,0.06,0.0,0.0,0.0,0.0,7.43</t>
+  </si>
+  <si>
+    <t>9.83,5.42,1.83,3.52,0.52,0.0,12.28,0.0,0.05,0.83,0,0,0.0,0.0,0.0,0.22,0.07,0.31,0.1,0.1,0.12,0.02,0.0,0.0,0.0,3.0,13.0,5.26,1.21,1.76,0.69,0.33,11.47,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.08,0.18,0.08,0.08,0.08,0.0,0.0,0.0,0.0,7.63</t>
+  </si>
+  <si>
+    <t>23.0,5.87,0.71,0.59,1.22,1.0,16.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.0,0.35,0.13,0.13,0.13,0.04,0.0,0.0,0.0,3.25,33.0,4.52,1.02,0.59,1.74,1.0,9.67,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.12,0.12,0.18,0.09,0.09,0.06,0.0,0.0,0.0,0.0,7.43</t>
+  </si>
+  <si>
+    <t>18.5,5.32,1.15,1.17,0.98,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.11,0.22,0.03,0.03,0.08,0.03,0.0,0.0,0.0,11.09,23.0,5.87,0.71,0.59,1.22,1.0,16.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.0,0.35,0.13,0.13,0.13,0.04,0.0,0.0,0.0,3.25</t>
+  </si>
+  <si>
+    <t>34.0,5.06,1.05,0.59,1.8,1.0,12.9,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.12,0.06,0.21,0.12,0.12,0.06,0.0,0.0,0.0,0.0,3.38,9.83,5.42,1.83,3.52,0.52,0.0,12.28,0.0,0.05,0.83,0,0,0.0,0.0,0.0,0.22,0.07,0.31,0.1,0.1,0.12,0.02,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>20.0,5.75,0.62,0.59,1.06,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.0,0.4,0.05,0.05,0.05,0.0,0.0,0.0,0.0,23.33,28.0,5.25,0.87,0.59,1.48,1.0,13.8,0.0,0.18,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,12.8</t>
+  </si>
+  <si>
+    <t>33.0,4.52,1.02,0.59,1.74,1.0,9.67,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.12,0.12,0.18,0.09,0.09,0.06,0.0,0.0,0.0,0.0,7.43,21.0,5.29,0.65,0.59,1.11,1.0,12.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.38,0.05,0.05,0.14,0.0,0.0,0.0,0.0,11.43</t>
+  </si>
+  <si>
+    <t>14.0,4.86,0.43,0.59,0.74,0.0,8.97,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.21,0.36,0.0,0.0,0.0,0.0,0.0,0.0,0.0,11.33,9.33,5.25,0.87,1.76,0.49,0.33,11.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.11,0.11,0.21,0.04,0.2,0.0,0.0,8.0</t>
+  </si>
+  <si>
+    <t>20.0,5.75,0.62,0.59,1.06,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.0,0.4,0.05,0.05,0.05,0.0,0.0,0.0,0.0,23.33,26.0,5.42,0.81,0.59,1.37,1.0,14.06,0.0,0.04,1.0,2,0,0.0,0.0,0.0,0.08,0.08,0.19,0.12,0.12,0.04,0.0,0.0,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>11.0,5.59,0.68,1.17,0.58,1.0,13.85,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.27,0.09,0.09,0.23,0.0,0.0,0.0,0.0,6.43,14.0,4.86,0.43,0.59,0.74,0.0,8.97,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.21,0.36,0.0,0.0,0.0,0.0,0.0,0.0,0.0,11.33</t>
+  </si>
+  <si>
+    <t>34.0,5.06,1.05,0.59,1.8,1.0,12.9,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.12,0.06,0.21,0.12,0.12,0.06,0.0,0.0,0.0,0.0,3.38,23.0,5.7,0.71,0.59,1.22,0.0,14.12,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.17,0.04,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,7.71</t>
+  </si>
+  <si>
+    <t>12.0,6.31,1.12,1.76,0.63,0.33,18.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.0,0.0,8.36,28.0,5.25,0.87,0.59,1.48,1.0,13.8,0.0,0.18,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,12.8</t>
+  </si>
+  <si>
+    <t>26.0,5.42,0.81,0.59,1.37,1.0,14.06,0.0,0.04,1.0,2,0,0.0,0.0,0.0,0.08,0.08,0.19,0.12,0.12,0.04,0.0,0.0,0.0,0.0,7.0,11.0,5.59,0.68,1.17,0.58,1.0,13.85,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.27,0.09,0.09,0.23,0.0,0.0,0.0,0.0,6.43</t>
+  </si>
+  <si>
+    <t>15.17,5.71,2.82,3.52,0.8,1.0,15.14,0.0,0.02,0.83,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.12,0.12,0.15,0.03,0.4,0.5,0.5,5.8,9.33,5.25,0.87,1.76,0.49,0.33,11.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.11,0.11,0.21,0.04,0.2,0.0,0.0,8.0</t>
   </si>
   <si>
     <t>chi</t>
@@ -1590,52 +1590,52 @@
     <t>not to hurt others, but we do it on our children . It is not make sense.</t>
   </si>
   <si>
-    <t>90,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.15,0.0,0.0,255,0.0,14.34,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.14,0.0</t>
-  </si>
-  <si>
-    <t>255,0.0,14.34,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.14,0.0,137,1.0,15.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>76,1.0,9.18,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,122,0.5,13.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>123,1.0,13.85,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.14,0.0,172,1.0,12.9,0.0,0.0,1.0,0.0,0.03,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>137,1.0,15.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,147,0.33,11.84,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>141,1.0,14.06,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,90,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>68,0.0,8.97,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,103,0.0,19.86,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>172,1.0,12.9,0.0,0.0,1.0,0.0,0.03,0.0,0.05,0.1,0.15,0.0,0.0,137,1.0,15.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>122,0.0,13.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,122,0.5,13.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>197,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0,227,0.33,18.16,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>183,0.5,11.14,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.25,0.0,0.0,137,1.0,15.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>123,1.0,13.85,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.14,0.0,520,1.0,15.14,0.0,0.02,0.83,0.0,0.0,0.0,0.2,0.5,0.45,0.14,0.5</t>
-  </si>
-  <si>
-    <t>122,0.5,13.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,135,1.0,16.15,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>68,0.0,8.97,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,205,0.33,11.47,0.0,0.0,1.0,0.0,0.03,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>194,0.5,17.26,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,227,0.33,18.16,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>320,0.0,12.28,0.0,0.05,0.83,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,291,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0</t>
+    <t>15.0,6.0,0.46,0.59,0.79,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,8.0,23.5,5.43,1.46,1.17,1.24,0.0,14.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.11,0.11,0.02,0.02,0.2,0.0,0.0,7.73</t>
+  </si>
+  <si>
+    <t>23.5,5.43,1.46,1.17,1.24,0.0,14.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.11,0.11,0.02,0.02,0.2,0.0,0.0,7.73,24.0,5.71,0.74,0.59,1.27,1.0,15.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.13,0.25,0.0,0.0,0.04,0.0,0.0,0.0,0.0,8.17</t>
+  </si>
+  <si>
+    <t>15.0,5.07,0.46,0.59,0.79,1.0,9.18,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.0,0.27,0.0,0.0,0.27,0.0,0.0,0.0,0.0,6.75,10.5,5.81,0.65,1.17,0.56,0.5,13.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.33,0.05,0.05,0.19,0.0,0.0,0.0,0.0,16.0</t>
+  </si>
+  <si>
+    <t>11.0,5.59,0.68,1.17,0.58,1.0,13.85,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.27,0.09,0.09,0.23,0.0,0.0,0.0,0.0,6.43,34.0,5.06,1.05,0.59,1.8,1.0,12.9,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.12,0.06,0.21,0.12,0.12,0.06,0.0,0.0,0.0,0.0,3.38</t>
+  </si>
+  <si>
+    <t>24.0,5.71,0.74,0.59,1.27,1.0,15.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.13,0.25,0.0,0.0,0.04,0.0,0.0,0.0,0.0,8.17,9.33,5.25,0.87,1.76,0.49,0.33,11.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.11,0.11,0.21,0.04,0.2,0.0,0.0,8.0</t>
+  </si>
+  <si>
+    <t>26.0,5.42,0.81,0.59,1.37,1.0,14.06,0.0,0.04,1.0,2,0,0.0,0.0,0.0,0.08,0.08,0.19,0.12,0.12,0.04,0.0,0.0,0.0,0.0,7.0,15.0,6.0,0.46,0.59,0.79,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,8.0</t>
+  </si>
+  <si>
+    <t>14.0,4.86,0.43,0.59,0.74,0.0,8.97,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.21,0.36,0.0,0.0,0.0,0.0,0.0,0.0,0.0,11.33,16.0,6.44,0.5,0.59,0.85,0.0,19.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.13,0.19,0.13,0.13,0.06,0.06,0.0,0.0,0.0,9.67</t>
+  </si>
+  <si>
+    <t>34.0,5.06,1.05,0.59,1.8,1.0,12.9,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.12,0.06,0.21,0.12,0.12,0.06,0.0,0.0,0.0,0.0,3.38,24.0,5.71,0.74,0.59,1.27,1.0,15.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.13,0.25,0.0,0.0,0.04,0.0,0.0,0.0,0.0,8.17</t>
+  </si>
+  <si>
+    <t>23.0,5.3,0.71,0.59,1.22,0.0,13.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.3,0.09,0.09,0.09,0.04,0.0,0.0,0.0,14.5,10.5,5.81,0.65,1.17,0.56,0.5,13.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.33,0.05,0.05,0.19,0.0,0.0,0.0,0.0,16.0</t>
+  </si>
+  <si>
+    <t>18.5,5.32,1.15,1.17,0.98,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.11,0.22,0.03,0.03,0.08,0.03,0.0,0.0,0.0,11.09,12.0,6.31,1.12,1.76,0.63,0.33,18.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.0,0.0,8.36</t>
+  </si>
+  <si>
+    <t>18.0,5.08,1.12,1.17,0.95,0.5,11.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.03,0.03,0.08,0.0,0.0,0.0,0.0,6.88,24.0,5.71,0.74,0.59,1.27,1.0,15.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.13,0.25,0.0,0.0,0.04,0.0,0.0,0.0,0.0,8.17</t>
+  </si>
+  <si>
+    <t>11.0,5.59,0.68,1.17,0.58,1.0,13.85,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.27,0.09,0.09,0.23,0.0,0.0,0.0,0.0,6.43,15.17,5.71,2.82,3.52,0.8,1.0,15.14,0.0,0.02,0.83,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.12,0.12,0.15,0.03,0.4,0.5,0.5,5.8</t>
+  </si>
+  <si>
+    <t>10.5,5.81,0.65,1.17,0.56,0.5,13.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.33,0.05,0.05,0.19,0.0,0.0,0.0,0.0,16.0,23.0,5.87,0.71,0.59,1.22,1.0,16.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.0,0.35,0.13,0.13,0.13,0.04,0.0,0.0,0.0,3.25</t>
+  </si>
+  <si>
+    <t>14.0,4.86,0.43,0.59,0.74,0.0,8.97,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.21,0.36,0.0,0.0,0.0,0.0,0.0,0.0,0.0,11.33,13.0,5.26,1.21,1.76,0.69,0.33,11.47,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.08,0.18,0.08,0.08,0.08,0.0,0.0,0.0,0.0,7.63</t>
+  </si>
+  <si>
+    <t>16.0,6.06,0.99,1.17,0.85,0.5,17.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.19,0.09,0.09,0.19,0.03,0.0,0.0,0.0,11.29,12.0,6.31,1.12,1.76,0.63,0.33,18.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.0,0.0,8.36</t>
+  </si>
+  <si>
+    <t>9.83,5.42,1.83,3.52,0.52,0.0,12.28,0.0,0.05,0.83,0,0,0.0,0.0,0.0,0.22,0.07,0.31,0.1,0.1,0.12,0.02,0.0,0.0,0.0,3.0,27.5,5.29,1.7,1.17,1.45,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.31,0.09,0.09,0.11,0.04,0.0,0.0,0.0,7.5</t>
   </si>
   <si>
     <t>que</t>
@@ -1644,19 +1644,19 @@
     <t>can learn from.</t>
   </si>
   <si>
-    <t>122,0.0,13.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,123,1.0,13.85,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.14,0.0</t>
-  </si>
-  <si>
-    <t>149,1.0,9.67,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,147,0.33,11.84,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,1.0,13.8,0.0,0.18,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,123,1.0,13.85,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.14,0.0</t>
-  </si>
-  <si>
-    <t>103,0.0,19.86,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,147,0.33,11.84,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,0.33,11.84,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.15,0.0,0.0,214,0.0,13.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
+    <t>23.0,5.3,0.71,0.59,1.22,0.0,13.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.3,0.09,0.09,0.09,0.04,0.0,0.0,0.0,14.5,11.0,5.59,0.68,1.17,0.58,1.0,13.85,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.27,0.09,0.09,0.23,0.0,0.0,0.0,0.0,6.43</t>
+  </si>
+  <si>
+    <t>33.0,4.52,1.02,0.59,1.74,1.0,9.67,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.12,0.12,0.18,0.09,0.09,0.06,0.0,0.0,0.0,0.0,7.43,9.33,5.25,0.87,1.76,0.49,0.33,11.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.11,0.11,0.21,0.04,0.2,0.0,0.0,8.0</t>
+  </si>
+  <si>
+    <t>28.0,5.25,0.87,0.59,1.48,1.0,13.8,0.0,0.18,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,12.8,11.0,5.59,0.68,1.17,0.58,1.0,13.85,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.27,0.09,0.09,0.23,0.0,0.0,0.0,0.0,6.43</t>
+  </si>
+  <si>
+    <t>16.0,6.44,0.5,0.59,0.85,0.0,19.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.13,0.19,0.13,0.13,0.06,0.06,0.0,0.0,0.0,9.67,9.33,5.25,0.87,1.76,0.49,0.33,11.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.11,0.11,0.21,0.04,0.2,0.0,0.0,8.0</t>
+  </si>
+  <si>
+    <t>9.33,5.25,0.87,1.76,0.49,0.33,11.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.11,0.11,0.21,0.04,0.2,0.0,0.0,8.0,12.67,5.63,1.18,1.76,0.67,0.0,13.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.03,0.03,0.05,0.03,0.0,0.0,0.0,11.5</t>
   </si>
 </sst>
 </file>
